--- a/Assessment Template.xlsx
+++ b/Assessment Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/temp/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D6D2FF-95C3-42FC-8D86-F4DAE4726474}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA78926-AA9E-4859-95DD-4D0F2465F019}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
+    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="CMMC Assessment Template" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,30 @@
     <author>Damian Mehsling</author>
   </authors>
   <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{89C9A7A4-BAEE-40A9-828A-1C1D42BCFD37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required Field</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4E818D3D-5506-4860-9868-19DE3DAF46CE}">
       <text>
         <r>
@@ -93,7 +117,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Match with POA&amp;M Worksheet</t>
+          <t>Required Field - Match with POA&amp;M Worksheet</t>
         </r>
         <r>
           <rPr>
@@ -4499,7 +4523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4535,6 +4559,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4551,7 +4581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4580,9 +4610,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4596,6 +4623,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4687,7 +4717,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F1A7959-175D-4133-8982-36F8B70DC173}" name="Table1" displayName="Table1" ref="A1:S321" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S321" xr:uid="{3F1A7959-175D-4133-8982-36F8B70DC173}"/>
+  <autoFilter ref="A1:S321" xr:uid="{3F1A7959-175D-4133-8982-36F8B70DC173}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Maintenance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{AA6860B8-5831-4178-A7D7-4112C65A6207}" name="Sort-As" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{17A4E935-A236-43E4-82FB-51C661B45DDB}" name="Family" dataDxfId="17"/>
@@ -5032,20 +5068,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60066FE1-9CE5-4478-8ECD-6949E065A1DA}">
   <dimension ref="A1:S321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S193" sqref="S193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
@@ -5085,7 +5123,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -5112,11 +5150,11 @@
       <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="9" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5145,17 +5183,17 @@
         <v>24</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="6"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -5184,17 +5222,17 @@
         <v>24</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="6"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -5223,17 +5261,17 @@
         <v>24</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="6"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -5262,17 +5300,17 @@
         <v>24</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -5301,17 +5339,17 @@
         <v>24</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -5340,17 +5378,17 @@
         <v>24</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -5379,17 +5417,17 @@
         <v>47</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -5418,17 +5456,17 @@
         <v>47</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="6"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -5457,17 +5495,17 @@
         <v>58</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="6"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -5496,17 +5534,17 @@
         <v>58</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="6"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5535,17 +5573,17 @@
         <v>58</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="6"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -5574,17 +5612,17 @@
         <v>58</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="6"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -5613,17 +5651,17 @@
         <v>58</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -5652,17 +5690,17 @@
         <v>78</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="6"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -5691,17 +5729,17 @@
         <v>78</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="6"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -5730,17 +5768,17 @@
         <v>78</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="6"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -5769,17 +5807,17 @@
         <v>92</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="6"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -5808,17 +5846,17 @@
         <v>92</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="6"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -5847,17 +5885,17 @@
         <v>92</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="6"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -5886,17 +5924,17 @@
         <v>92</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="6"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -5925,17 +5963,17 @@
         <v>109</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="6"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -5964,17 +6002,17 @@
         <v>109</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="6"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -6003,17 +6041,17 @@
         <v>120</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
@@ -6042,17 +6080,17 @@
         <v>120</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="6"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
@@ -6081,17 +6119,17 @@
         <v>120</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="6"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>127</v>
       </c>
@@ -6120,17 +6158,17 @@
         <v>120</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="6"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
@@ -6159,17 +6197,17 @@
         <v>137</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="6"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -6198,17 +6236,17 @@
         <v>137</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="6"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -6237,17 +6275,17 @@
         <v>148</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
@@ -6276,17 +6314,17 @@
         <v>148</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="6"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
@@ -6315,17 +6353,17 @@
         <v>158</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="6"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
@@ -6354,17 +6392,17 @@
         <v>158</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="6"/>
+      <c r="R33" s="5"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>162</v>
       </c>
@@ -6393,17 +6431,17 @@
         <v>158</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="6"/>
+      <c r="R34" s="5"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
@@ -6432,17 +6470,17 @@
         <v>171</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="6"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
@@ -6471,17 +6509,17 @@
         <v>171</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="6"/>
+      <c r="R36" s="5"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -6510,17 +6548,17 @@
         <v>182</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="6"/>
+      <c r="R37" s="5"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>183</v>
       </c>
@@ -6549,17 +6587,17 @@
         <v>182</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="6"/>
+      <c r="R38" s="5"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>186</v>
       </c>
@@ -6588,17 +6626,17 @@
         <v>182</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="6"/>
+      <c r="R39" s="5"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>189</v>
       </c>
@@ -6627,17 +6665,17 @@
         <v>182</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="6"/>
+      <c r="R40" s="5"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>192</v>
       </c>
@@ -6666,17 +6704,17 @@
         <v>198</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="6"/>
+      <c r="R41" s="5"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
@@ -6705,17 +6743,17 @@
         <v>198</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="6"/>
+      <c r="R42" s="5"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>202</v>
       </c>
@@ -6744,17 +6782,17 @@
         <v>209</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="6"/>
+      <c r="R43" s="5"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>210</v>
       </c>
@@ -6783,17 +6821,17 @@
         <v>209</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="6"/>
+      <c r="R44" s="5"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
@@ -6822,17 +6860,17 @@
         <v>219</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="6"/>
+      <c r="R45" s="5"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>220</v>
       </c>
@@ -6861,17 +6899,17 @@
         <v>219</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="6"/>
+      <c r="R46" s="5"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>223</v>
       </c>
@@ -6900,17 +6938,17 @@
         <v>219</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="6"/>
+      <c r="R47" s="5"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>226</v>
       </c>
@@ -6939,17 +6977,17 @@
         <v>219</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="6"/>
+      <c r="R48" s="5"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>229</v>
       </c>
@@ -6978,17 +7016,17 @@
         <v>236</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="6"/>
+      <c r="R49" s="5"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>237</v>
       </c>
@@ -7017,17 +7055,17 @@
         <v>236</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="6"/>
+      <c r="R50" s="5"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>240</v>
       </c>
@@ -7056,17 +7094,17 @@
         <v>246</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="6"/>
+      <c r="R51" s="5"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>247</v>
       </c>
@@ -7095,17 +7133,17 @@
         <v>246</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="6"/>
+      <c r="R52" s="5"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>250</v>
       </c>
@@ -7134,17 +7172,17 @@
         <v>257</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="6"/>
+      <c r="R53" s="5"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>258</v>
       </c>
@@ -7173,17 +7211,17 @@
         <v>257</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="6"/>
+      <c r="R54" s="5"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>261</v>
       </c>
@@ -7212,17 +7250,17 @@
         <v>257</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="6"/>
+      <c r="R55" s="5"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>264</v>
       </c>
@@ -7251,17 +7289,17 @@
         <v>271</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="6"/>
+      <c r="R56" s="5"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>272</v>
       </c>
@@ -7290,17 +7328,17 @@
         <v>271</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="6"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>275</v>
       </c>
@@ -7329,17 +7367,17 @@
         <v>282</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="6"/>
+      <c r="R58" s="5"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>283</v>
       </c>
@@ -7368,17 +7406,17 @@
         <v>282</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="6"/>
+      <c r="R59" s="5"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>286</v>
       </c>
@@ -7407,17 +7445,17 @@
         <v>282</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="6"/>
+      <c r="R60" s="5"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>289</v>
       </c>
@@ -7446,17 +7484,17 @@
         <v>282</v>
       </c>
       <c r="J61" s="1"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="6"/>
+      <c r="R61" s="5"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>292</v>
       </c>
@@ -7485,17 +7523,17 @@
         <v>282</v>
       </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="6"/>
+      <c r="R62" s="5"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>295</v>
       </c>
@@ -7524,17 +7562,17 @@
         <v>282</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="6"/>
+      <c r="R63" s="5"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>298</v>
       </c>
@@ -7563,17 +7601,17 @@
         <v>305</v>
       </c>
       <c r="J64" s="1"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="6"/>
+      <c r="R64" s="5"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>306</v>
       </c>
@@ -7602,17 +7640,17 @@
         <v>305</v>
       </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="6"/>
+      <c r="R65" s="5"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>309</v>
       </c>
@@ -7641,17 +7679,17 @@
         <v>305</v>
       </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="6"/>
+      <c r="R66" s="5"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>312</v>
       </c>
@@ -7680,17 +7718,17 @@
         <v>319</v>
       </c>
       <c r="J67" s="1"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="6"/>
+      <c r="R67" s="5"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>320</v>
       </c>
@@ -7719,17 +7757,17 @@
         <v>319</v>
       </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="6"/>
+      <c r="R68" s="5"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>323</v>
       </c>
@@ -7758,17 +7796,17 @@
         <v>319</v>
       </c>
       <c r="J69" s="1"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="6"/>
+      <c r="R69" s="5"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>326</v>
       </c>
@@ -7797,17 +7835,17 @@
         <v>319</v>
       </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="6"/>
+      <c r="R70" s="5"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>329</v>
       </c>
@@ -7836,17 +7874,17 @@
         <v>319</v>
       </c>
       <c r="J71" s="1"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="6"/>
+      <c r="R71" s="5"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>332</v>
       </c>
@@ -7875,17 +7913,17 @@
         <v>340</v>
       </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="6"/>
+      <c r="R72" s="5"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>341</v>
       </c>
@@ -7914,17 +7952,17 @@
         <v>340</v>
       </c>
       <c r="J73" s="1"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="6"/>
+      <c r="R73" s="5"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>344</v>
       </c>
@@ -7953,17 +7991,17 @@
         <v>340</v>
       </c>
       <c r="J74" s="1"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="6"/>
+      <c r="R74" s="5"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>347</v>
       </c>
@@ -7992,17 +8030,17 @@
         <v>340</v>
       </c>
       <c r="J75" s="1"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="6"/>
+      <c r="R75" s="5"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>350</v>
       </c>
@@ -8031,17 +8069,17 @@
         <v>357</v>
       </c>
       <c r="J76" s="1"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="6"/>
+      <c r="R76" s="5"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>358</v>
       </c>
@@ -8070,17 +8108,17 @@
         <v>357</v>
       </c>
       <c r="J77" s="1"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="6"/>
+      <c r="R77" s="5"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>361</v>
       </c>
@@ -8109,17 +8147,17 @@
         <v>357</v>
       </c>
       <c r="J78" s="1"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="6"/>
+      <c r="R78" s="5"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>364</v>
       </c>
@@ -8148,17 +8186,17 @@
         <v>371</v>
       </c>
       <c r="J79" s="1"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="6"/>
+      <c r="R79" s="5"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>372</v>
       </c>
@@ -8187,17 +8225,17 @@
         <v>371</v>
       </c>
       <c r="J80" s="1"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="R80" s="6"/>
+      <c r="R80" s="5"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>375</v>
       </c>
@@ -8226,17 +8264,17 @@
         <v>383</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="6"/>
+      <c r="R81" s="5"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>384</v>
       </c>
@@ -8265,17 +8303,17 @@
         <v>383</v>
       </c>
       <c r="J82" s="1"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="6"/>
+      <c r="R82" s="5"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>387</v>
       </c>
@@ -8304,17 +8342,17 @@
         <v>383</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="6"/>
+      <c r="R83" s="5"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>390</v>
       </c>
@@ -8343,17 +8381,17 @@
         <v>383</v>
       </c>
       <c r="J84" s="1"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="6"/>
+      <c r="R84" s="5"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>393</v>
       </c>
@@ -8382,17 +8420,17 @@
         <v>383</v>
       </c>
       <c r="J85" s="1"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="6"/>
+      <c r="R85" s="5"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>396</v>
       </c>
@@ -8421,17 +8459,17 @@
         <v>383</v>
       </c>
       <c r="J86" s="1"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="6"/>
+      <c r="R86" s="5"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>399</v>
       </c>
@@ -8460,17 +8498,17 @@
         <v>383</v>
       </c>
       <c r="J87" s="1"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="6"/>
+      <c r="R87" s="5"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>405</v>
       </c>
@@ -8499,17 +8537,17 @@
         <v>383</v>
       </c>
       <c r="J88" s="1"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="6"/>
+      <c r="R88" s="5"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>407</v>
       </c>
@@ -8538,17 +8576,17 @@
         <v>414</v>
       </c>
       <c r="J89" s="1"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="6"/>
+      <c r="R89" s="5"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>415</v>
       </c>
@@ -8577,17 +8615,17 @@
         <v>414</v>
       </c>
       <c r="J90" s="1"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="6"/>
+      <c r="R90" s="5"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>418</v>
       </c>
@@ -8616,17 +8654,17 @@
         <v>414</v>
       </c>
       <c r="J91" s="1"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="6"/>
+      <c r="R91" s="5"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>421</v>
       </c>
@@ -8655,17 +8693,17 @@
         <v>428</v>
       </c>
       <c r="J92" s="1"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="6"/>
+      <c r="R92" s="5"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>429</v>
       </c>
@@ -8694,17 +8732,17 @@
         <v>428</v>
       </c>
       <c r="J93" s="1"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="6"/>
+      <c r="R93" s="5"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>432</v>
       </c>
@@ -8733,17 +8771,17 @@
         <v>428</v>
       </c>
       <c r="J94" s="1"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="6"/>
+      <c r="R94" s="5"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>435</v>
       </c>
@@ -8772,17 +8810,17 @@
         <v>442</v>
       </c>
       <c r="J95" s="1"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="6"/>
+      <c r="R95" s="5"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>443</v>
       </c>
@@ -8811,17 +8849,17 @@
         <v>442</v>
       </c>
       <c r="J96" s="1"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="6"/>
+      <c r="R96" s="5"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>446</v>
       </c>
@@ -8850,17 +8888,17 @@
         <v>453</v>
       </c>
       <c r="J97" s="1"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="6"/>
+      <c r="R97" s="5"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>454</v>
       </c>
@@ -8889,17 +8927,17 @@
         <v>453</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="6"/>
+      <c r="R98" s="5"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>457</v>
       </c>
@@ -8928,17 +8966,17 @@
         <v>464</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="6"/>
+      <c r="R99" s="5"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>465</v>
       </c>
@@ -8967,17 +9005,17 @@
         <v>464</v>
       </c>
       <c r="J100" s="1"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100" s="6"/>
+      <c r="R100" s="5"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>468</v>
       </c>
@@ -9006,17 +9044,17 @@
         <v>464</v>
       </c>
       <c r="J101" s="1"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="6"/>
+      <c r="R101" s="5"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>471</v>
       </c>
@@ -9045,17 +9083,17 @@
         <v>477</v>
       </c>
       <c r="J102" s="1"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="6"/>
+      <c r="R102" s="5"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>478</v>
       </c>
@@ -9084,17 +9122,17 @@
         <v>477</v>
       </c>
       <c r="J103" s="1"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="6"/>
+      <c r="R103" s="5"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>481</v>
       </c>
@@ -9123,17 +9161,17 @@
         <v>477</v>
       </c>
       <c r="J104" s="1"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="6"/>
+      <c r="R104" s="5"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>484</v>
       </c>
@@ -9162,17 +9200,17 @@
         <v>477</v>
       </c>
       <c r="J105" s="1"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="6"/>
+      <c r="R105" s="5"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>487</v>
       </c>
@@ -9201,17 +9239,17 @@
         <v>477</v>
       </c>
       <c r="J106" s="1"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="R106" s="6"/>
+      <c r="R106" s="5"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>490</v>
       </c>
@@ -9240,17 +9278,17 @@
         <v>477</v>
       </c>
       <c r="J107" s="1"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="6"/>
+      <c r="R107" s="5"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>493</v>
       </c>
@@ -9279,17 +9317,17 @@
         <v>499</v>
       </c>
       <c r="J108" s="1"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="6"/>
+      <c r="R108" s="5"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>500</v>
       </c>
@@ -9318,17 +9356,17 @@
         <v>499</v>
       </c>
       <c r="J109" s="1"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109" s="6"/>
+      <c r="R109" s="5"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>503</v>
       </c>
@@ -9357,17 +9395,17 @@
         <v>511</v>
       </c>
       <c r="J110" s="1"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="6"/>
+      <c r="R110" s="5"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>512</v>
       </c>
@@ -9396,17 +9434,17 @@
         <v>511</v>
       </c>
       <c r="J111" s="1"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="6"/>
+      <c r="R111" s="5"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>515</v>
       </c>
@@ -9435,17 +9473,17 @@
         <v>511</v>
       </c>
       <c r="J112" s="1"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112" s="6"/>
+      <c r="R112" s="5"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>518</v>
       </c>
@@ -9474,17 +9512,17 @@
         <v>511</v>
       </c>
       <c r="J113" s="1"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="6"/>
+      <c r="R113" s="5"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>521</v>
       </c>
@@ -9513,17 +9551,17 @@
         <v>511</v>
       </c>
       <c r="J114" s="1"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="6"/>
+      <c r="R114" s="5"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>524</v>
       </c>
@@ -9552,17 +9590,17 @@
         <v>511</v>
       </c>
       <c r="J115" s="1"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115" s="6"/>
+      <c r="R115" s="5"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>527</v>
       </c>
@@ -9591,17 +9629,17 @@
         <v>534</v>
       </c>
       <c r="J116" s="1"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-      <c r="R116" s="6"/>
+      <c r="R116" s="5"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>535</v>
       </c>
@@ -9630,17 +9668,17 @@
         <v>534</v>
       </c>
       <c r="J117" s="1"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="6"/>
+      <c r="R117" s="5"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>538</v>
       </c>
@@ -9669,17 +9707,17 @@
         <v>545</v>
       </c>
       <c r="J118" s="1"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="6"/>
+      <c r="R118" s="5"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>546</v>
       </c>
@@ -9708,17 +9746,17 @@
         <v>545</v>
       </c>
       <c r="J119" s="1"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-      <c r="R119" s="6"/>
+      <c r="R119" s="5"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>549</v>
       </c>
@@ -9747,17 +9785,17 @@
         <v>545</v>
       </c>
       <c r="J120" s="1"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="6"/>
+      <c r="R120" s="5"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>552</v>
       </c>
@@ -9786,17 +9824,17 @@
         <v>545</v>
       </c>
       <c r="J121" s="1"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="6"/>
+      <c r="R121" s="5"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>555</v>
       </c>
@@ -9825,17 +9863,17 @@
         <v>561</v>
       </c>
       <c r="J122" s="1"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="6"/>
+      <c r="R122" s="5"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>562</v>
       </c>
@@ -9864,17 +9902,17 @@
         <v>569</v>
       </c>
       <c r="J123" s="1"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="6"/>
+      <c r="R123" s="5"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>570</v>
       </c>
@@ -9903,17 +9941,17 @@
         <v>569</v>
       </c>
       <c r="J124" s="1"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="6"/>
+      <c r="R124" s="5"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>573</v>
       </c>
@@ -9942,17 +9980,17 @@
         <v>569</v>
       </c>
       <c r="J125" s="1"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125" s="6"/>
+      <c r="R125" s="5"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>576</v>
       </c>
@@ -9981,17 +10019,17 @@
         <v>569</v>
       </c>
       <c r="J126" s="1"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-      <c r="R126" s="6"/>
+      <c r="R126" s="5"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>579</v>
       </c>
@@ -10020,17 +10058,17 @@
         <v>569</v>
       </c>
       <c r="J127" s="1"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-      <c r="R127" s="6"/>
+      <c r="R127" s="5"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>582</v>
       </c>
@@ -10059,17 +10097,17 @@
         <v>569</v>
       </c>
       <c r="J128" s="1"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="R128" s="6"/>
+      <c r="R128" s="5"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>585</v>
       </c>
@@ -10098,17 +10136,17 @@
         <v>569</v>
       </c>
       <c r="J129" s="1"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="6"/>
+      <c r="R129" s="5"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>588</v>
       </c>
@@ -10137,17 +10175,17 @@
         <v>569</v>
       </c>
       <c r="J130" s="1"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="6"/>
+      <c r="R130" s="5"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>591</v>
       </c>
@@ -10176,17 +10214,17 @@
         <v>597</v>
       </c>
       <c r="J131" s="1"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131" s="6"/>
+      <c r="R131" s="5"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>598</v>
       </c>
@@ -10215,17 +10253,17 @@
         <v>597</v>
       </c>
       <c r="J132" s="1"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="6"/>
+      <c r="R132" s="5"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>601</v>
       </c>
@@ -10254,17 +10292,17 @@
         <v>608</v>
       </c>
       <c r="J133" s="1"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="6"/>
+      <c r="R133" s="5"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>609</v>
       </c>
@@ -10293,17 +10331,17 @@
         <v>608</v>
       </c>
       <c r="J134" s="1"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="6"/>
+      <c r="R134" s="5"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>612</v>
       </c>
@@ -10332,17 +10370,17 @@
         <v>608</v>
       </c>
       <c r="J135" s="1"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="R135" s="6"/>
+      <c r="R135" s="5"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>615</v>
       </c>
@@ -10371,17 +10409,17 @@
         <v>608</v>
       </c>
       <c r="J136" s="1"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="6"/>
+      <c r="R136" s="5"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>618</v>
       </c>
@@ -10410,17 +10448,17 @@
         <v>608</v>
       </c>
       <c r="J137" s="1"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="6"/>
+      <c r="R137" s="5"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>621</v>
       </c>
@@ -10449,17 +10487,17 @@
         <v>608</v>
       </c>
       <c r="J138" s="1"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="R138" s="6"/>
+      <c r="R138" s="5"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>624</v>
       </c>
@@ -10488,17 +10526,17 @@
         <v>608</v>
       </c>
       <c r="J139" s="1"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="6"/>
+      <c r="R139" s="5"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>627</v>
       </c>
@@ -10527,17 +10565,17 @@
         <v>608</v>
       </c>
       <c r="J140" s="1"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="6"/>
+      <c r="R140" s="5"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>630</v>
       </c>
@@ -10566,17 +10604,17 @@
         <v>608</v>
       </c>
       <c r="J141" s="1"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141" s="6"/>
+      <c r="R141" s="5"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>633</v>
       </c>
@@ -10605,17 +10643,17 @@
         <v>608</v>
       </c>
       <c r="J142" s="1"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="6"/>
+      <c r="R142" s="5"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>636</v>
       </c>
@@ -10644,17 +10682,17 @@
         <v>608</v>
       </c>
       <c r="J143" s="1"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="6"/>
+      <c r="R143" s="5"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>639</v>
       </c>
@@ -10683,17 +10721,17 @@
         <v>608</v>
       </c>
       <c r="J144" s="1"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144" s="6"/>
+      <c r="R144" s="5"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>642</v>
       </c>
@@ -10722,17 +10760,17 @@
         <v>608</v>
       </c>
       <c r="J145" s="1"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="6"/>
+      <c r="R145" s="5"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>645</v>
       </c>
@@ -10761,17 +10799,17 @@
         <v>608</v>
       </c>
       <c r="J146" s="1"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="6"/>
+      <c r="R146" s="5"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>648</v>
       </c>
@@ -10800,17 +10838,17 @@
         <v>608</v>
       </c>
       <c r="J147" s="1"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="R147" s="6"/>
+      <c r="R147" s="5"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>651</v>
       </c>
@@ -10839,17 +10877,17 @@
         <v>658</v>
       </c>
       <c r="J148" s="1"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="6"/>
+      <c r="R148" s="5"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>659</v>
       </c>
@@ -10878,17 +10916,17 @@
         <v>658</v>
       </c>
       <c r="J149" s="1"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="6"/>
+      <c r="R149" s="5"/>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>662</v>
       </c>
@@ -10917,17 +10955,17 @@
         <v>658</v>
       </c>
       <c r="J150" s="1"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="R150" s="6"/>
+      <c r="R150" s="5"/>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>665</v>
       </c>
@@ -10956,17 +10994,17 @@
         <v>672</v>
       </c>
       <c r="J151" s="1"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151" s="6"/>
+      <c r="R151" s="5"/>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>673</v>
       </c>
@@ -10995,17 +11033,17 @@
         <v>672</v>
       </c>
       <c r="J152" s="1"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="6"/>
+      <c r="R152" s="5"/>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>676</v>
       </c>
@@ -11034,17 +11072,17 @@
         <v>672</v>
       </c>
       <c r="J153" s="1"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="6"/>
+      <c r="R153" s="5"/>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>679</v>
       </c>
@@ -11073,17 +11111,17 @@
         <v>687</v>
       </c>
       <c r="J154" s="1"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="6"/>
+      <c r="R154" s="5"/>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>688</v>
       </c>
@@ -11112,17 +11150,17 @@
         <v>687</v>
       </c>
       <c r="J155" s="1"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="6"/>
+      <c r="R155" s="5"/>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>691</v>
       </c>
@@ -11151,17 +11189,17 @@
         <v>687</v>
       </c>
       <c r="J156" s="1"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="6"/>
+      <c r="R156" s="5"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>694</v>
       </c>
@@ -11190,17 +11228,17 @@
         <v>701</v>
       </c>
       <c r="J157" s="1"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157" s="6"/>
+      <c r="R157" s="5"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>702</v>
       </c>
@@ -11229,17 +11267,17 @@
         <v>701</v>
       </c>
       <c r="J158" s="1"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="6"/>
+      <c r="R158" s="5"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>705</v>
       </c>
@@ -11268,17 +11306,17 @@
         <v>701</v>
       </c>
       <c r="J159" s="1"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="6"/>
+      <c r="R159" s="5"/>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>708</v>
       </c>
@@ -11307,17 +11345,17 @@
         <v>714</v>
       </c>
       <c r="J160" s="1"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="R160" s="6"/>
+      <c r="R160" s="5"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>715</v>
       </c>
@@ -11346,17 +11384,17 @@
         <v>714</v>
       </c>
       <c r="J161" s="1"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161" s="6"/>
+      <c r="R161" s="5"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>718</v>
       </c>
@@ -11385,17 +11423,17 @@
         <v>714</v>
       </c>
       <c r="J162" s="1"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="6"/>
+      <c r="R162" s="5"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>721</v>
       </c>
@@ -11424,17 +11462,17 @@
         <v>714</v>
       </c>
       <c r="J163" s="1"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163" s="6"/>
+      <c r="R163" s="5"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>724</v>
       </c>
@@ -11463,17 +11501,17 @@
         <v>729</v>
       </c>
       <c r="J164" s="1"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="R164" s="6"/>
+      <c r="R164" s="5"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>730</v>
       </c>
@@ -11502,17 +11540,17 @@
         <v>737</v>
       </c>
       <c r="J165" s="1"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="6"/>
+      <c r="R165" s="5"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>738</v>
       </c>
@@ -11541,17 +11579,17 @@
         <v>737</v>
       </c>
       <c r="J166" s="1"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="R166" s="6"/>
+      <c r="R166" s="5"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>741</v>
       </c>
@@ -11580,17 +11618,17 @@
         <v>737</v>
       </c>
       <c r="J167" s="1"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167" s="6"/>
+      <c r="R167" s="5"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>746</v>
       </c>
@@ -11619,17 +11657,17 @@
         <v>737</v>
       </c>
       <c r="J168" s="1"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="R168" s="6"/>
+      <c r="R168" s="5"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>749</v>
       </c>
@@ -11658,17 +11696,17 @@
         <v>756</v>
       </c>
       <c r="J169" s="1"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="R169" s="6"/>
+      <c r="R169" s="5"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>757</v>
       </c>
@@ -11697,17 +11735,17 @@
         <v>756</v>
       </c>
       <c r="J170" s="1"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="6"/>
+      <c r="R170" s="5"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>760</v>
       </c>
@@ -11736,17 +11774,17 @@
         <v>756</v>
       </c>
       <c r="J171" s="1"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="6"/>
+      <c r="R171" s="5"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>763</v>
       </c>
@@ -11775,17 +11813,17 @@
         <v>756</v>
       </c>
       <c r="J172" s="1"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="6"/>
+      <c r="R172" s="5"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>766</v>
       </c>
@@ -11814,17 +11852,17 @@
         <v>756</v>
       </c>
       <c r="J173" s="1"/>
-      <c r="K173" s="5"/>
-      <c r="L173" s="5"/>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="6"/>
+      <c r="R173" s="5"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>771</v>
       </c>
@@ -11853,17 +11891,17 @@
         <v>756</v>
       </c>
       <c r="J174" s="1"/>
-      <c r="K174" s="5"/>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="R174" s="6"/>
+      <c r="R174" s="5"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>774</v>
       </c>
@@ -11892,17 +11930,17 @@
         <v>756</v>
       </c>
       <c r="J175" s="1"/>
-      <c r="K175" s="5"/>
-      <c r="L175" s="5"/>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-      <c r="R175" s="6"/>
+      <c r="R175" s="5"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>778</v>
       </c>
@@ -11931,17 +11969,17 @@
         <v>756</v>
       </c>
       <c r="J176" s="1"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-      <c r="R176" s="6"/>
+      <c r="R176" s="5"/>
       <c r="S176" s="1"/>
     </row>
-    <row r="177" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>783</v>
       </c>
@@ -11970,17 +12008,17 @@
         <v>756</v>
       </c>
       <c r="J177" s="1"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="R177" s="6"/>
+      <c r="R177" s="5"/>
       <c r="S177" s="1"/>
     </row>
-    <row r="178" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>786</v>
       </c>
@@ -12009,17 +12047,17 @@
         <v>791</v>
       </c>
       <c r="J178" s="1"/>
-      <c r="K178" s="5"/>
-      <c r="L178" s="5"/>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="R178" s="6"/>
+      <c r="R178" s="5"/>
       <c r="S178" s="1"/>
     </row>
-    <row r="179" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>792</v>
       </c>
@@ -12048,17 +12086,17 @@
         <v>800</v>
       </c>
       <c r="J179" s="1"/>
-      <c r="K179" s="5"/>
-      <c r="L179" s="5"/>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="R179" s="6"/>
+      <c r="R179" s="5"/>
       <c r="S179" s="1"/>
     </row>
-    <row r="180" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>801</v>
       </c>
@@ -12087,17 +12125,17 @@
         <v>800</v>
       </c>
       <c r="J180" s="1"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-      <c r="R180" s="6"/>
+      <c r="R180" s="5"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>804</v>
       </c>
@@ -12126,17 +12164,17 @@
         <v>800</v>
       </c>
       <c r="J181" s="1"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-      <c r="R181" s="6"/>
+      <c r="R181" s="5"/>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>807</v>
       </c>
@@ -12165,17 +12203,17 @@
         <v>800</v>
       </c>
       <c r="J182" s="1"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-      <c r="R182" s="6"/>
+      <c r="R182" s="5"/>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>810</v>
       </c>
@@ -12204,17 +12242,17 @@
         <v>800</v>
       </c>
       <c r="J183" s="1"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="5"/>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-      <c r="R183" s="6"/>
+      <c r="R183" s="5"/>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>813</v>
       </c>
@@ -12243,17 +12281,17 @@
         <v>800</v>
       </c>
       <c r="J184" s="1"/>
-      <c r="K184" s="5"/>
-      <c r="L184" s="5"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-      <c r="R184" s="6"/>
+      <c r="R184" s="5"/>
       <c r="S184" s="1"/>
     </row>
-    <row r="185" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>816</v>
       </c>
@@ -12282,17 +12320,17 @@
         <v>800</v>
       </c>
       <c r="J185" s="1"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-      <c r="R185" s="6"/>
+      <c r="R185" s="5"/>
       <c r="S185" s="1"/>
     </row>
-    <row r="186" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>819</v>
       </c>
@@ -12321,17 +12359,17 @@
         <v>826</v>
       </c>
       <c r="J186" s="1"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-      <c r="R186" s="6"/>
+      <c r="R186" s="5"/>
       <c r="S186" s="1"/>
     </row>
-    <row r="187" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>827</v>
       </c>
@@ -12360,17 +12398,17 @@
         <v>826</v>
       </c>
       <c r="J187" s="1"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-      <c r="R187" s="6"/>
+      <c r="R187" s="5"/>
       <c r="S187" s="1"/>
     </row>
-    <row r="188" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>830</v>
       </c>
@@ -12399,17 +12437,17 @@
         <v>826</v>
       </c>
       <c r="J188" s="1"/>
-      <c r="K188" s="5"/>
-      <c r="L188" s="5"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-      <c r="R188" s="6"/>
+      <c r="R188" s="5"/>
       <c r="S188" s="1"/>
     </row>
-    <row r="189" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>833</v>
       </c>
@@ -12438,17 +12476,17 @@
         <v>826</v>
       </c>
       <c r="J189" s="1"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-      <c r="R189" s="6"/>
+      <c r="R189" s="5"/>
       <c r="S189" s="1"/>
     </row>
-    <row r="190" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>836</v>
       </c>
@@ -12477,17 +12515,17 @@
         <v>826</v>
       </c>
       <c r="J190" s="1"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-      <c r="R190" s="6"/>
+      <c r="R190" s="5"/>
       <c r="S190" s="1"/>
     </row>
-    <row r="191" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>839</v>
       </c>
@@ -12516,17 +12554,17 @@
         <v>826</v>
       </c>
       <c r="J191" s="1"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="5"/>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-      <c r="R191" s="6"/>
+      <c r="R191" s="5"/>
       <c r="S191" s="1"/>
     </row>
-    <row r="192" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>842</v>
       </c>
@@ -12555,14 +12593,14 @@
         <v>826</v>
       </c>
       <c r="J192" s="1"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="5"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-      <c r="R192" s="6"/>
+      <c r="R192" s="5"/>
       <c r="S192" s="1"/>
     </row>
     <row r="193" spans="1:19" ht="150" x14ac:dyDescent="0.25">
@@ -12594,17 +12632,17 @@
         <v>855</v>
       </c>
       <c r="J193" s="1"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-      <c r="R193" s="6"/>
+      <c r="R193" s="5"/>
       <c r="S193" s="1"/>
     </row>
-    <row r="194" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>856</v>
       </c>
@@ -12633,17 +12671,17 @@
         <v>863</v>
       </c>
       <c r="J194" s="1"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="5"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-      <c r="R194" s="6"/>
+      <c r="R194" s="5"/>
       <c r="S194" s="1"/>
     </row>
-    <row r="195" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>864</v>
       </c>
@@ -12672,17 +12710,17 @@
         <v>863</v>
       </c>
       <c r="J195" s="1"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="5"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-      <c r="R195" s="6"/>
+      <c r="R195" s="5"/>
       <c r="S195" s="1"/>
     </row>
-    <row r="196" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>867</v>
       </c>
@@ -12711,17 +12749,17 @@
         <v>863</v>
       </c>
       <c r="J196" s="1"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="5"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-      <c r="R196" s="6"/>
+      <c r="R196" s="5"/>
       <c r="S196" s="1"/>
     </row>
-    <row r="197" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>870</v>
       </c>
@@ -12750,17 +12788,17 @@
         <v>863</v>
       </c>
       <c r="J197" s="1"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-      <c r="R197" s="6"/>
+      <c r="R197" s="5"/>
       <c r="S197" s="1"/>
     </row>
-    <row r="198" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>873</v>
       </c>
@@ -12789,17 +12827,17 @@
         <v>855</v>
       </c>
       <c r="J198" s="1"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-      <c r="R198" s="6"/>
+      <c r="R198" s="5"/>
       <c r="S198" s="1"/>
     </row>
-    <row r="199" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>877</v>
       </c>
@@ -12828,17 +12866,17 @@
         <v>882</v>
       </c>
       <c r="J199" s="1"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-      <c r="R199" s="6"/>
+      <c r="R199" s="5"/>
       <c r="S199" s="1"/>
     </row>
-    <row r="200" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>883</v>
       </c>
@@ -12867,17 +12905,17 @@
         <v>890</v>
       </c>
       <c r="J200" s="1"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-      <c r="R200" s="6"/>
+      <c r="R200" s="5"/>
       <c r="S200" s="1"/>
     </row>
-    <row r="201" spans="1:19" ht="375" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>891</v>
       </c>
@@ -12906,17 +12944,17 @@
         <v>890</v>
       </c>
       <c r="J201" s="1"/>
-      <c r="K201" s="5"/>
-      <c r="L201" s="5"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-      <c r="R201" s="6"/>
+      <c r="R201" s="5"/>
       <c r="S201" s="1"/>
     </row>
-    <row r="202" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>894</v>
       </c>
@@ -12945,17 +12983,17 @@
         <v>899</v>
       </c>
       <c r="J202" s="1"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="5"/>
-      <c r="N202" s="5"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-      <c r="R202" s="6"/>
+      <c r="R202" s="5"/>
       <c r="S202" s="1"/>
     </row>
-    <row r="203" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>900</v>
       </c>
@@ -12984,17 +13022,17 @@
         <v>908</v>
       </c>
       <c r="J203" s="1"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-      <c r="R203" s="6"/>
+      <c r="R203" s="5"/>
       <c r="S203" s="1"/>
     </row>
-    <row r="204" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>909</v>
       </c>
@@ -13023,17 +13061,17 @@
         <v>908</v>
       </c>
       <c r="J204" s="1"/>
-      <c r="K204" s="5"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="5"/>
-      <c r="N204" s="5"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-      <c r="R204" s="6"/>
+      <c r="R204" s="5"/>
       <c r="S204" s="1"/>
     </row>
-    <row r="205" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>912</v>
       </c>
@@ -13062,17 +13100,17 @@
         <v>908</v>
       </c>
       <c r="J205" s="1"/>
-      <c r="K205" s="5"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-      <c r="R205" s="6"/>
+      <c r="R205" s="5"/>
       <c r="S205" s="1"/>
     </row>
-    <row r="206" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>915</v>
       </c>
@@ -13101,17 +13139,17 @@
         <v>908</v>
       </c>
       <c r="J206" s="1"/>
-      <c r="K206" s="5"/>
-      <c r="L206" s="5"/>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-      <c r="R206" s="6"/>
+      <c r="R206" s="5"/>
       <c r="S206" s="1"/>
     </row>
-    <row r="207" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>918</v>
       </c>
@@ -13140,17 +13178,17 @@
         <v>924</v>
       </c>
       <c r="J207" s="1"/>
-      <c r="K207" s="5"/>
-      <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-      <c r="R207" s="6"/>
+      <c r="R207" s="5"/>
       <c r="S207" s="1"/>
     </row>
-    <row r="208" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>925</v>
       </c>
@@ -13179,17 +13217,17 @@
         <v>932</v>
       </c>
       <c r="J208" s="1"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-      <c r="R208" s="6"/>
+      <c r="R208" s="5"/>
       <c r="S208" s="1"/>
     </row>
-    <row r="209" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>933</v>
       </c>
@@ -13218,17 +13256,17 @@
         <v>932</v>
       </c>
       <c r="J209" s="1"/>
-      <c r="K209" s="5"/>
-      <c r="L209" s="5"/>
-      <c r="M209" s="5"/>
-      <c r="N209" s="5"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-      <c r="R209" s="6"/>
+      <c r="R209" s="5"/>
       <c r="S209" s="1"/>
     </row>
-    <row r="210" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>936</v>
       </c>
@@ -13257,17 +13295,17 @@
         <v>943</v>
       </c>
       <c r="J210" s="1"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-      <c r="R210" s="6"/>
+      <c r="R210" s="5"/>
       <c r="S210" s="1"/>
     </row>
-    <row r="211" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>944</v>
       </c>
@@ -13296,17 +13334,17 @@
         <v>943</v>
       </c>
       <c r="J211" s="1"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="5"/>
-      <c r="M211" s="5"/>
-      <c r="N211" s="5"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-      <c r="R211" s="6"/>
+      <c r="R211" s="5"/>
       <c r="S211" s="1"/>
     </row>
-    <row r="212" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>947</v>
       </c>
@@ -13335,17 +13373,17 @@
         <v>954</v>
       </c>
       <c r="J212" s="1"/>
-      <c r="K212" s="5"/>
-      <c r="L212" s="5"/>
-      <c r="M212" s="5"/>
-      <c r="N212" s="5"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-      <c r="R212" s="6"/>
+      <c r="R212" s="5"/>
       <c r="S212" s="1"/>
     </row>
-    <row r="213" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>955</v>
       </c>
@@ -13374,17 +13412,17 @@
         <v>954</v>
       </c>
       <c r="J213" s="1"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
-      <c r="M213" s="5"/>
-      <c r="N213" s="5"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-      <c r="R213" s="6"/>
+      <c r="R213" s="5"/>
       <c r="S213" s="1"/>
     </row>
-    <row r="214" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>958</v>
       </c>
@@ -13413,17 +13451,17 @@
         <v>964</v>
       </c>
       <c r="J214" s="1"/>
-      <c r="K214" s="5"/>
-      <c r="L214" s="5"/>
-      <c r="M214" s="5"/>
-      <c r="N214" s="5"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-      <c r="R214" s="6"/>
+      <c r="R214" s="5"/>
       <c r="S214" s="1"/>
     </row>
-    <row r="215" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>965</v>
       </c>
@@ -13452,17 +13490,17 @@
         <v>971</v>
       </c>
       <c r="J215" s="1"/>
-      <c r="K215" s="5"/>
-      <c r="L215" s="5"/>
-      <c r="M215" s="5"/>
-      <c r="N215" s="5"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-      <c r="R215" s="6"/>
+      <c r="R215" s="5"/>
       <c r="S215" s="1"/>
     </row>
-    <row r="216" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>972</v>
       </c>
@@ -13491,17 +13529,17 @@
         <v>976</v>
       </c>
       <c r="J216" s="1"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="5"/>
-      <c r="N216" s="5"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-      <c r="R216" s="6"/>
+      <c r="R216" s="5"/>
       <c r="S216" s="1"/>
     </row>
-    <row r="217" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>977</v>
       </c>
@@ -13530,17 +13568,17 @@
         <v>983</v>
       </c>
       <c r="J217" s="1"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="5"/>
-      <c r="M217" s="5"/>
-      <c r="N217" s="5"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-      <c r="R217" s="6"/>
+      <c r="R217" s="5"/>
       <c r="S217" s="1"/>
     </row>
-    <row r="218" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>984</v>
       </c>
@@ -13569,17 +13607,17 @@
         <v>991</v>
       </c>
       <c r="J218" s="1"/>
-      <c r="K218" s="5"/>
-      <c r="L218" s="5"/>
-      <c r="M218" s="5"/>
-      <c r="N218" s="5"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-      <c r="R218" s="6"/>
+      <c r="R218" s="5"/>
       <c r="S218" s="1"/>
     </row>
-    <row r="219" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>992</v>
       </c>
@@ -13608,17 +13646,17 @@
         <v>999</v>
       </c>
       <c r="J219" s="1"/>
-      <c r="K219" s="5"/>
-      <c r="L219" s="5"/>
-      <c r="M219" s="5"/>
-      <c r="N219" s="5"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-      <c r="R219" s="6"/>
+      <c r="R219" s="5"/>
       <c r="S219" s="1"/>
     </row>
-    <row r="220" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1000</v>
       </c>
@@ -13647,17 +13685,17 @@
         <v>999</v>
       </c>
       <c r="J220" s="1"/>
-      <c r="K220" s="5"/>
-      <c r="L220" s="5"/>
-      <c r="M220" s="5"/>
-      <c r="N220" s="5"/>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-      <c r="R220" s="6"/>
+      <c r="R220" s="5"/>
       <c r="S220" s="1"/>
     </row>
-    <row r="221" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1003</v>
       </c>
@@ -13686,17 +13724,17 @@
         <v>999</v>
       </c>
       <c r="J221" s="1"/>
-      <c r="K221" s="5"/>
-      <c r="L221" s="5"/>
-      <c r="M221" s="5"/>
-      <c r="N221" s="5"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-      <c r="R221" s="6"/>
+      <c r="R221" s="5"/>
       <c r="S221" s="1"/>
     </row>
-    <row r="222" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1006</v>
       </c>
@@ -13725,17 +13763,17 @@
         <v>1014</v>
       </c>
       <c r="J222" s="1"/>
-      <c r="K222" s="5"/>
-      <c r="L222" s="5"/>
-      <c r="M222" s="5"/>
-      <c r="N222" s="5"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-      <c r="R222" s="6"/>
+      <c r="R222" s="5"/>
       <c r="S222" s="1"/>
     </row>
-    <row r="223" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1015</v>
       </c>
@@ -13764,17 +13802,17 @@
         <v>1014</v>
       </c>
       <c r="J223" s="1"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="5"/>
-      <c r="M223" s="5"/>
-      <c r="N223" s="5"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-      <c r="R223" s="6"/>
+      <c r="R223" s="5"/>
       <c r="S223" s="1"/>
     </row>
-    <row r="224" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1018</v>
       </c>
@@ -13803,17 +13841,17 @@
         <v>1014</v>
       </c>
       <c r="J224" s="1"/>
-      <c r="K224" s="5"/>
-      <c r="L224" s="5"/>
-      <c r="M224" s="5"/>
-      <c r="N224" s="5"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="R224" s="6"/>
+      <c r="R224" s="5"/>
       <c r="S224" s="1"/>
     </row>
-    <row r="225" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13842,17 +13880,17 @@
         <v>1014</v>
       </c>
       <c r="J225" s="1"/>
-      <c r="K225" s="5"/>
-      <c r="L225" s="5"/>
-      <c r="M225" s="5"/>
-      <c r="N225" s="5"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-      <c r="R225" s="6"/>
+      <c r="R225" s="5"/>
       <c r="S225" s="1"/>
     </row>
-    <row r="226" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1024</v>
       </c>
@@ -13881,17 +13919,17 @@
         <v>1031</v>
       </c>
       <c r="J226" s="1"/>
-      <c r="K226" s="5"/>
-      <c r="L226" s="5"/>
-      <c r="M226" s="5"/>
-      <c r="N226" s="5"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-      <c r="R226" s="6"/>
+      <c r="R226" s="5"/>
       <c r="S226" s="1"/>
     </row>
-    <row r="227" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1032</v>
       </c>
@@ -13920,17 +13958,17 @@
         <v>1031</v>
       </c>
       <c r="J227" s="1"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="5"/>
-      <c r="M227" s="5"/>
-      <c r="N227" s="5"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-      <c r="R227" s="6"/>
+      <c r="R227" s="5"/>
       <c r="S227" s="1"/>
     </row>
-    <row r="228" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1035</v>
       </c>
@@ -13959,17 +13997,17 @@
         <v>1031</v>
       </c>
       <c r="J228" s="1"/>
-      <c r="K228" s="5"/>
-      <c r="L228" s="5"/>
-      <c r="M228" s="5"/>
-      <c r="N228" s="5"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-      <c r="R228" s="6"/>
+      <c r="R228" s="5"/>
       <c r="S228" s="1"/>
     </row>
-    <row r="229" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1038</v>
       </c>
@@ -13998,17 +14036,17 @@
         <v>1031</v>
       </c>
       <c r="J229" s="1"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="5"/>
-      <c r="M229" s="5"/>
-      <c r="N229" s="5"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-      <c r="R229" s="6"/>
+      <c r="R229" s="5"/>
       <c r="S229" s="1"/>
     </row>
-    <row r="230" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1041</v>
       </c>
@@ -14037,17 +14075,17 @@
         <v>1048</v>
       </c>
       <c r="J230" s="1"/>
-      <c r="K230" s="5"/>
-      <c r="L230" s="5"/>
-      <c r="M230" s="5"/>
-      <c r="N230" s="5"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-      <c r="R230" s="6"/>
+      <c r="R230" s="5"/>
       <c r="S230" s="1"/>
     </row>
-    <row r="231" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1049</v>
       </c>
@@ -14076,17 +14114,17 @@
         <v>1048</v>
       </c>
       <c r="J231" s="1"/>
-      <c r="K231" s="5"/>
-      <c r="L231" s="5"/>
-      <c r="M231" s="5"/>
-      <c r="N231" s="5"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-      <c r="R231" s="6"/>
+      <c r="R231" s="5"/>
       <c r="S231" s="1"/>
     </row>
-    <row r="232" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1052</v>
       </c>
@@ -14115,17 +14153,17 @@
         <v>1048</v>
       </c>
       <c r="J232" s="1"/>
-      <c r="K232" s="5"/>
-      <c r="L232" s="5"/>
-      <c r="M232" s="5"/>
-      <c r="N232" s="5"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-      <c r="R232" s="6"/>
+      <c r="R232" s="5"/>
       <c r="S232" s="1"/>
     </row>
-    <row r="233" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1057</v>
       </c>
@@ -14154,17 +14192,17 @@
         <v>1048</v>
       </c>
       <c r="J233" s="1"/>
-      <c r="K233" s="5"/>
-      <c r="L233" s="5"/>
-      <c r="M233" s="5"/>
-      <c r="N233" s="5"/>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-      <c r="R233" s="6"/>
+      <c r="R233" s="5"/>
       <c r="S233" s="1"/>
     </row>
-    <row r="234" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1062</v>
       </c>
@@ -14193,17 +14231,17 @@
         <v>1048</v>
       </c>
       <c r="J234" s="1"/>
-      <c r="K234" s="5"/>
-      <c r="L234" s="5"/>
-      <c r="M234" s="5"/>
-      <c r="N234" s="5"/>
+      <c r="K234" s="4"/>
+      <c r="L234" s="4"/>
+      <c r="M234" s="4"/>
+      <c r="N234" s="4"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234" s="6"/>
+      <c r="R234" s="5"/>
       <c r="S234" s="1"/>
     </row>
-    <row r="235" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1065</v>
       </c>
@@ -14232,17 +14270,17 @@
         <v>1048</v>
       </c>
       <c r="J235" s="1"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="5"/>
-      <c r="N235" s="5"/>
+      <c r="K235" s="4"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
-      <c r="R235" s="6"/>
+      <c r="R235" s="5"/>
       <c r="S235" s="1"/>
     </row>
-    <row r="236" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1068</v>
       </c>
@@ -14271,17 +14309,17 @@
         <v>1075</v>
       </c>
       <c r="J236" s="1"/>
-      <c r="K236" s="5"/>
-      <c r="L236" s="5"/>
-      <c r="M236" s="5"/>
-      <c r="N236" s="5"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="4"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-      <c r="R236" s="6"/>
+      <c r="R236" s="5"/>
       <c r="S236" s="1"/>
     </row>
-    <row r="237" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1076</v>
       </c>
@@ -14310,17 +14348,17 @@
         <v>1075</v>
       </c>
       <c r="J237" s="1"/>
-      <c r="K237" s="5"/>
-      <c r="L237" s="5"/>
-      <c r="M237" s="5"/>
-      <c r="N237" s="5"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="4"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
-      <c r="R237" s="6"/>
+      <c r="R237" s="5"/>
       <c r="S237" s="1"/>
     </row>
-    <row r="238" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1079</v>
       </c>
@@ -14349,17 +14387,17 @@
         <v>1087</v>
       </c>
       <c r="J238" s="1"/>
-      <c r="K238" s="5"/>
-      <c r="L238" s="5"/>
-      <c r="M238" s="5"/>
-      <c r="N238" s="5"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="4"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-      <c r="R238" s="6"/>
+      <c r="R238" s="5"/>
       <c r="S238" s="1"/>
     </row>
-    <row r="239" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1088</v>
       </c>
@@ -14388,17 +14426,17 @@
         <v>1087</v>
       </c>
       <c r="J239" s="1"/>
-      <c r="K239" s="5"/>
-      <c r="L239" s="5"/>
-      <c r="M239" s="5"/>
-      <c r="N239" s="5"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="4"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="4"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
-      <c r="R239" s="6"/>
+      <c r="R239" s="5"/>
       <c r="S239" s="1"/>
     </row>
-    <row r="240" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1091</v>
       </c>
@@ -14427,17 +14465,17 @@
         <v>1098</v>
       </c>
       <c r="J240" s="1"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="5"/>
-      <c r="M240" s="5"/>
-      <c r="N240" s="5"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="4"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-      <c r="R240" s="6"/>
+      <c r="R240" s="5"/>
       <c r="S240" s="1"/>
     </row>
-    <row r="241" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1099</v>
       </c>
@@ -14466,17 +14504,17 @@
         <v>1098</v>
       </c>
       <c r="J241" s="1"/>
-      <c r="K241" s="5"/>
-      <c r="L241" s="5"/>
-      <c r="M241" s="5"/>
-      <c r="N241" s="5"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="4"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
-      <c r="R241" s="6"/>
+      <c r="R241" s="5"/>
       <c r="S241" s="1"/>
     </row>
-    <row r="242" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14505,17 +14543,17 @@
         <v>1098</v>
       </c>
       <c r="J242" s="1"/>
-      <c r="K242" s="5"/>
-      <c r="L242" s="5"/>
-      <c r="M242" s="5"/>
-      <c r="N242" s="5"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
-      <c r="R242" s="6"/>
+      <c r="R242" s="5"/>
       <c r="S242" s="1"/>
     </row>
-    <row r="243" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1105</v>
       </c>
@@ -14544,17 +14582,17 @@
         <v>1098</v>
       </c>
       <c r="J243" s="1"/>
-      <c r="K243" s="5"/>
-      <c r="L243" s="5"/>
-      <c r="M243" s="5"/>
-      <c r="N243" s="5"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="4"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
-      <c r="R243" s="6"/>
+      <c r="R243" s="5"/>
       <c r="S243" s="1"/>
     </row>
-    <row r="244" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1108</v>
       </c>
@@ -14583,17 +14621,17 @@
         <v>1098</v>
       </c>
       <c r="J244" s="1"/>
-      <c r="K244" s="5"/>
-      <c r="L244" s="5"/>
-      <c r="M244" s="5"/>
-      <c r="N244" s="5"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="4"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
-      <c r="R244" s="6"/>
+      <c r="R244" s="5"/>
       <c r="S244" s="1"/>
     </row>
-    <row r="245" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1111</v>
       </c>
@@ -14622,17 +14660,17 @@
         <v>1098</v>
       </c>
       <c r="J245" s="1"/>
-      <c r="K245" s="5"/>
-      <c r="L245" s="5"/>
-      <c r="M245" s="5"/>
-      <c r="N245" s="5"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="4"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="6"/>
+      <c r="R245" s="5"/>
       <c r="S245" s="1"/>
     </row>
-    <row r="246" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1117</v>
       </c>
@@ -14661,17 +14699,17 @@
         <v>1098</v>
       </c>
       <c r="J246" s="1"/>
-      <c r="K246" s="5"/>
-      <c r="L246" s="5"/>
-      <c r="M246" s="5"/>
-      <c r="N246" s="5"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="4"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
-      <c r="R246" s="6"/>
+      <c r="R246" s="5"/>
       <c r="S246" s="1"/>
     </row>
-    <row r="247" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1120</v>
       </c>
@@ -14700,17 +14738,17 @@
         <v>1128</v>
       </c>
       <c r="J247" s="1"/>
-      <c r="K247" s="5"/>
-      <c r="L247" s="5"/>
-      <c r="M247" s="5"/>
-      <c r="N247" s="5"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="4"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
-      <c r="R247" s="6"/>
+      <c r="R247" s="5"/>
       <c r="S247" s="1"/>
     </row>
-    <row r="248" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1129</v>
       </c>
@@ -14739,17 +14777,17 @@
         <v>1128</v>
       </c>
       <c r="J248" s="1"/>
-      <c r="K248" s="5"/>
-      <c r="L248" s="5"/>
-      <c r="M248" s="5"/>
-      <c r="N248" s="5"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="4"/>
+      <c r="M248" s="4"/>
+      <c r="N248" s="4"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
-      <c r="R248" s="6"/>
+      <c r="R248" s="5"/>
       <c r="S248" s="1"/>
     </row>
-    <row r="249" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1132</v>
       </c>
@@ -14778,17 +14816,17 @@
         <v>1139</v>
       </c>
       <c r="J249" s="1"/>
-      <c r="K249" s="5"/>
-      <c r="L249" s="5"/>
-      <c r="M249" s="5"/>
-      <c r="N249" s="5"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="4"/>
+      <c r="M249" s="4"/>
+      <c r="N249" s="4"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
-      <c r="R249" s="6"/>
+      <c r="R249" s="5"/>
       <c r="S249" s="1"/>
     </row>
-    <row r="250" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1140</v>
       </c>
@@ -14817,17 +14855,17 @@
         <v>1139</v>
       </c>
       <c r="J250" s="1"/>
-      <c r="K250" s="5"/>
-      <c r="L250" s="5"/>
-      <c r="M250" s="5"/>
-      <c r="N250" s="5"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="4"/>
+      <c r="M250" s="4"/>
+      <c r="N250" s="4"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
-      <c r="R250" s="6"/>
+      <c r="R250" s="5"/>
       <c r="S250" s="1"/>
     </row>
-    <row r="251" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1143</v>
       </c>
@@ -14856,17 +14894,17 @@
         <v>1139</v>
       </c>
       <c r="J251" s="1"/>
-      <c r="K251" s="5"/>
-      <c r="L251" s="5"/>
-      <c r="M251" s="5"/>
-      <c r="N251" s="5"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="4"/>
+      <c r="N251" s="4"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
-      <c r="R251" s="6"/>
+      <c r="R251" s="5"/>
       <c r="S251" s="1"/>
     </row>
-    <row r="252" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1146</v>
       </c>
@@ -14895,17 +14933,17 @@
         <v>1152</v>
       </c>
       <c r="J252" s="1"/>
-      <c r="K252" s="5"/>
-      <c r="L252" s="5"/>
-      <c r="M252" s="5"/>
-      <c r="N252" s="5"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="4"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
-      <c r="R252" s="6"/>
+      <c r="R252" s="5"/>
       <c r="S252" s="1"/>
     </row>
-    <row r="253" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14934,17 +14972,17 @@
         <v>1152</v>
       </c>
       <c r="J253" s="1"/>
-      <c r="K253" s="5"/>
-      <c r="L253" s="5"/>
-      <c r="M253" s="5"/>
-      <c r="N253" s="5"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="4"/>
+      <c r="M253" s="4"/>
+      <c r="N253" s="4"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
-      <c r="R253" s="6"/>
+      <c r="R253" s="5"/>
       <c r="S253" s="1"/>
     </row>
-    <row r="254" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>1159</v>
       </c>
@@ -14973,17 +15011,17 @@
         <v>1152</v>
       </c>
       <c r="J254" s="1"/>
-      <c r="K254" s="5"/>
-      <c r="L254" s="5"/>
-      <c r="M254" s="5"/>
-      <c r="N254" s="5"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="4"/>
+      <c r="N254" s="4"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
-      <c r="R254" s="6"/>
+      <c r="R254" s="5"/>
       <c r="S254" s="1"/>
     </row>
-    <row r="255" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>1162</v>
       </c>
@@ -15012,17 +15050,17 @@
         <v>1152</v>
       </c>
       <c r="J255" s="1"/>
-      <c r="K255" s="5"/>
-      <c r="L255" s="5"/>
-      <c r="M255" s="5"/>
-      <c r="N255" s="5"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="4"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="4"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
-      <c r="R255" s="6"/>
+      <c r="R255" s="5"/>
       <c r="S255" s="1"/>
     </row>
-    <row r="256" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1165</v>
       </c>
@@ -15051,17 +15089,17 @@
         <v>1152</v>
       </c>
       <c r="J256" s="1"/>
-      <c r="K256" s="5"/>
-      <c r="L256" s="5"/>
-      <c r="M256" s="5"/>
-      <c r="N256" s="5"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="4"/>
+      <c r="N256" s="4"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
-      <c r="R256" s="6"/>
+      <c r="R256" s="5"/>
       <c r="S256" s="1"/>
     </row>
-    <row r="257" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1168</v>
       </c>
@@ -15090,17 +15128,17 @@
         <v>1152</v>
       </c>
       <c r="J257" s="1"/>
-      <c r="K257" s="5"/>
-      <c r="L257" s="5"/>
-      <c r="M257" s="5"/>
-      <c r="N257" s="5"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="4"/>
+      <c r="N257" s="4"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
-      <c r="R257" s="6"/>
+      <c r="R257" s="5"/>
       <c r="S257" s="1"/>
     </row>
-    <row r="258" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>1171</v>
       </c>
@@ -15129,17 +15167,17 @@
         <v>1152</v>
       </c>
       <c r="J258" s="1"/>
-      <c r="K258" s="5"/>
-      <c r="L258" s="5"/>
-      <c r="M258" s="5"/>
-      <c r="N258" s="5"/>
+      <c r="K258" s="4"/>
+      <c r="L258" s="4"/>
+      <c r="M258" s="4"/>
+      <c r="N258" s="4"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
-      <c r="R258" s="6"/>
+      <c r="R258" s="5"/>
       <c r="S258" s="1"/>
     </row>
-    <row r="259" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>1174</v>
       </c>
@@ -15168,17 +15206,17 @@
         <v>1152</v>
       </c>
       <c r="J259" s="1"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
-      <c r="M259" s="5"/>
-      <c r="N259" s="5"/>
+      <c r="K259" s="4"/>
+      <c r="L259" s="4"/>
+      <c r="M259" s="4"/>
+      <c r="N259" s="4"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
-      <c r="R259" s="6"/>
+      <c r="R259" s="5"/>
       <c r="S259" s="1"/>
     </row>
-    <row r="260" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1177</v>
       </c>
@@ -15207,17 +15245,17 @@
         <v>1152</v>
       </c>
       <c r="J260" s="1"/>
-      <c r="K260" s="5"/>
-      <c r="L260" s="5"/>
-      <c r="M260" s="5"/>
-      <c r="N260" s="5"/>
+      <c r="K260" s="4"/>
+      <c r="L260" s="4"/>
+      <c r="M260" s="4"/>
+      <c r="N260" s="4"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
-      <c r="R260" s="6"/>
+      <c r="R260" s="5"/>
       <c r="S260" s="1"/>
     </row>
-    <row r="261" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1180</v>
       </c>
@@ -15246,17 +15284,17 @@
         <v>1188</v>
       </c>
       <c r="J261" s="1"/>
-      <c r="K261" s="5"/>
-      <c r="L261" s="5"/>
-      <c r="M261" s="5"/>
-      <c r="N261" s="5"/>
+      <c r="K261" s="4"/>
+      <c r="L261" s="4"/>
+      <c r="M261" s="4"/>
+      <c r="N261" s="4"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
-      <c r="R261" s="6"/>
+      <c r="R261" s="5"/>
       <c r="S261" s="1"/>
     </row>
-    <row r="262" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1189</v>
       </c>
@@ -15285,17 +15323,17 @@
         <v>1188</v>
       </c>
       <c r="J262" s="1"/>
-      <c r="K262" s="5"/>
-      <c r="L262" s="5"/>
-      <c r="M262" s="5"/>
-      <c r="N262" s="5"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="4"/>
+      <c r="M262" s="4"/>
+      <c r="N262" s="4"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
-      <c r="R262" s="6"/>
+      <c r="R262" s="5"/>
       <c r="S262" s="1"/>
     </row>
-    <row r="263" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1192</v>
       </c>
@@ -15324,17 +15362,17 @@
         <v>1188</v>
       </c>
       <c r="J263" s="1"/>
-      <c r="K263" s="5"/>
-      <c r="L263" s="5"/>
-      <c r="M263" s="5"/>
-      <c r="N263" s="5"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="4"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
-      <c r="R263" s="6"/>
+      <c r="R263" s="5"/>
       <c r="S263" s="1"/>
     </row>
-    <row r="264" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1195</v>
       </c>
@@ -15363,17 +15401,17 @@
         <v>1188</v>
       </c>
       <c r="J264" s="1"/>
-      <c r="K264" s="5"/>
-      <c r="L264" s="5"/>
-      <c r="M264" s="5"/>
-      <c r="N264" s="5"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="4"/>
+      <c r="M264" s="4"/>
+      <c r="N264" s="4"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
-      <c r="R264" s="6"/>
+      <c r="R264" s="5"/>
       <c r="S264" s="1"/>
     </row>
-    <row r="265" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1198</v>
       </c>
@@ -15402,17 +15440,17 @@
         <v>1188</v>
       </c>
       <c r="J265" s="1"/>
-      <c r="K265" s="5"/>
-      <c r="L265" s="5"/>
-      <c r="M265" s="5"/>
-      <c r="N265" s="5"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="4"/>
+      <c r="N265" s="4"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
-      <c r="R265" s="6"/>
+      <c r="R265" s="5"/>
       <c r="S265" s="1"/>
     </row>
-    <row r="266" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1201</v>
       </c>
@@ -15441,17 +15479,17 @@
         <v>1188</v>
       </c>
       <c r="J266" s="1"/>
-      <c r="K266" s="5"/>
-      <c r="L266" s="5"/>
-      <c r="M266" s="5"/>
-      <c r="N266" s="5"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
+      <c r="M266" s="4"/>
+      <c r="N266" s="4"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
-      <c r="R266" s="6"/>
+      <c r="R266" s="5"/>
       <c r="S266" s="1"/>
     </row>
-    <row r="267" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1204</v>
       </c>
@@ -15480,17 +15518,17 @@
         <v>1188</v>
       </c>
       <c r="J267" s="1"/>
-      <c r="K267" s="5"/>
-      <c r="L267" s="5"/>
-      <c r="M267" s="5"/>
-      <c r="N267" s="5"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="4"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
-      <c r="R267" s="6"/>
+      <c r="R267" s="5"/>
       <c r="S267" s="1"/>
     </row>
-    <row r="268" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1207</v>
       </c>
@@ -15519,17 +15557,17 @@
         <v>1188</v>
       </c>
       <c r="J268" s="1"/>
-      <c r="K268" s="5"/>
-      <c r="L268" s="5"/>
-      <c r="M268" s="5"/>
-      <c r="N268" s="5"/>
+      <c r="K268" s="4"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="4"/>
+      <c r="N268" s="4"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
-      <c r="R268" s="6"/>
+      <c r="R268" s="5"/>
       <c r="S268" s="1"/>
     </row>
-    <row r="269" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1210</v>
       </c>
@@ -15558,17 +15596,17 @@
         <v>1215</v>
       </c>
       <c r="J269" s="1"/>
-      <c r="K269" s="5"/>
-      <c r="L269" s="5"/>
-      <c r="M269" s="5"/>
-      <c r="N269" s="5"/>
+      <c r="K269" s="4"/>
+      <c r="L269" s="4"/>
+      <c r="M269" s="4"/>
+      <c r="N269" s="4"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
-      <c r="R269" s="6"/>
+      <c r="R269" s="5"/>
       <c r="S269" s="1"/>
     </row>
-    <row r="270" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1216</v>
       </c>
@@ -15597,17 +15635,17 @@
         <v>1215</v>
       </c>
       <c r="J270" s="1"/>
-      <c r="K270" s="5"/>
-      <c r="L270" s="5"/>
-      <c r="M270" s="9"/>
-      <c r="N270" s="9"/>
+      <c r="K270" s="4"/>
+      <c r="L270" s="4"/>
+      <c r="M270" s="8"/>
+      <c r="N270" s="8"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
-      <c r="R270" s="6"/>
+      <c r="R270" s="5"/>
       <c r="S270" s="1"/>
     </row>
-    <row r="271" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1219</v>
       </c>
@@ -15636,17 +15674,17 @@
         <v>1215</v>
       </c>
       <c r="J271" s="1"/>
-      <c r="K271" s="5"/>
-      <c r="L271" s="5"/>
-      <c r="M271" s="5"/>
-      <c r="N271" s="5"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="4"/>
+      <c r="N271" s="4"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
-      <c r="R271" s="6"/>
+      <c r="R271" s="5"/>
       <c r="S271" s="1"/>
     </row>
-    <row r="272" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1222</v>
       </c>
@@ -15675,17 +15713,17 @@
         <v>1215</v>
       </c>
       <c r="J272" s="1"/>
-      <c r="K272" s="5"/>
-      <c r="L272" s="5"/>
-      <c r="M272" s="5"/>
-      <c r="N272" s="5"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="4"/>
+      <c r="N272" s="4"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
-      <c r="R272" s="6"/>
+      <c r="R272" s="5"/>
       <c r="S272" s="1"/>
     </row>
-    <row r="273" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1225</v>
       </c>
@@ -15714,17 +15752,17 @@
         <v>1215</v>
       </c>
       <c r="J273" s="1"/>
-      <c r="K273" s="5"/>
-      <c r="L273" s="5"/>
-      <c r="M273" s="5"/>
-      <c r="N273" s="5"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="4"/>
+      <c r="N273" s="4"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
-      <c r="R273" s="6"/>
+      <c r="R273" s="5"/>
       <c r="S273" s="1"/>
     </row>
-    <row r="274" spans="1:19" ht="345" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1228</v>
       </c>
@@ -15753,17 +15791,17 @@
         <v>1215</v>
       </c>
       <c r="J274" s="1"/>
-      <c r="K274" s="5"/>
-      <c r="L274" s="5"/>
-      <c r="M274" s="9"/>
-      <c r="N274" s="9"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="4"/>
+      <c r="M274" s="8"/>
+      <c r="N274" s="8"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
-      <c r="R274" s="6"/>
+      <c r="R274" s="5"/>
       <c r="S274" s="1"/>
     </row>
-    <row r="275" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1231</v>
       </c>
@@ -15792,17 +15830,17 @@
         <v>1238</v>
       </c>
       <c r="J275" s="1"/>
-      <c r="K275" s="5"/>
-      <c r="L275" s="5"/>
-      <c r="M275" s="5"/>
-      <c r="N275" s="5"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
+      <c r="M275" s="4"/>
+      <c r="N275" s="4"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
-      <c r="R275" s="6"/>
+      <c r="R275" s="5"/>
       <c r="S275" s="1"/>
     </row>
-    <row r="276" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1239</v>
       </c>
@@ -15831,17 +15869,17 @@
         <v>1238</v>
       </c>
       <c r="J276" s="1"/>
-      <c r="K276" s="5"/>
-      <c r="L276" s="5"/>
-      <c r="M276" s="5"/>
-      <c r="N276" s="5"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="4"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
-      <c r="R276" s="6"/>
+      <c r="R276" s="5"/>
       <c r="S276" s="1"/>
     </row>
-    <row r="277" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1242</v>
       </c>
@@ -15870,17 +15908,17 @@
         <v>1238</v>
       </c>
       <c r="J277" s="1"/>
-      <c r="K277" s="5"/>
-      <c r="L277" s="5"/>
-      <c r="M277" s="5"/>
-      <c r="N277" s="5"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="4"/>
+      <c r="M277" s="4"/>
+      <c r="N277" s="4"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
-      <c r="R277" s="6"/>
+      <c r="R277" s="5"/>
       <c r="S277" s="1"/>
     </row>
-    <row r="278" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1245</v>
       </c>
@@ -15909,17 +15947,17 @@
         <v>1238</v>
       </c>
       <c r="J278" s="1"/>
-      <c r="K278" s="5"/>
-      <c r="L278" s="5"/>
-      <c r="M278" s="5"/>
-      <c r="N278" s="5"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+      <c r="M278" s="4"/>
+      <c r="N278" s="4"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
-      <c r="R278" s="6"/>
+      <c r="R278" s="5"/>
       <c r="S278" s="1"/>
     </row>
-    <row r="279" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1250</v>
       </c>
@@ -15948,17 +15986,17 @@
         <v>1188</v>
       </c>
       <c r="J279" s="1"/>
-      <c r="K279" s="5"/>
-      <c r="L279" s="5"/>
-      <c r="M279" s="5"/>
-      <c r="N279" s="5"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="4"/>
+      <c r="M279" s="4"/>
+      <c r="N279" s="4"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
-      <c r="R279" s="6"/>
+      <c r="R279" s="5"/>
       <c r="S279" s="1"/>
     </row>
-    <row r="280" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1256</v>
       </c>
@@ -15987,17 +16025,17 @@
         <v>1188</v>
       </c>
       <c r="J280" s="1"/>
-      <c r="K280" s="5"/>
-      <c r="L280" s="5"/>
-      <c r="M280" s="5"/>
-      <c r="N280" s="5"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="4"/>
+      <c r="M280" s="4"/>
+      <c r="N280" s="4"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
-      <c r="R280" s="6"/>
+      <c r="R280" s="5"/>
       <c r="S280" s="1"/>
     </row>
-    <row r="281" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1259</v>
       </c>
@@ -16026,17 +16064,17 @@
         <v>1265</v>
       </c>
       <c r="J281" s="1"/>
-      <c r="K281" s="5"/>
-      <c r="L281" s="5"/>
-      <c r="M281" s="5"/>
-      <c r="N281" s="5"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="4"/>
+      <c r="M281" s="4"/>
+      <c r="N281" s="4"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
-      <c r="R281" s="6"/>
+      <c r="R281" s="5"/>
       <c r="S281" s="1"/>
     </row>
-    <row r="282" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1266</v>
       </c>
@@ -16065,17 +16103,17 @@
         <v>1265</v>
       </c>
       <c r="J282" s="1"/>
-      <c r="K282" s="5"/>
-      <c r="L282" s="5"/>
-      <c r="M282" s="9"/>
-      <c r="N282" s="9"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="4"/>
+      <c r="M282" s="8"/>
+      <c r="N282" s="8"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
-      <c r="R282" s="6"/>
+      <c r="R282" s="5"/>
       <c r="S282" s="1"/>
     </row>
-    <row r="283" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1269</v>
       </c>
@@ -16104,17 +16142,17 @@
         <v>1274</v>
       </c>
       <c r="J283" s="1"/>
-      <c r="K283" s="5"/>
-      <c r="L283" s="5"/>
-      <c r="M283" s="5"/>
-      <c r="N283" s="5"/>
+      <c r="K283" s="4"/>
+      <c r="L283" s="4"/>
+      <c r="M283" s="4"/>
+      <c r="N283" s="4"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
-      <c r="R283" s="6"/>
+      <c r="R283" s="5"/>
       <c r="S283" s="1"/>
     </row>
-    <row r="284" spans="1:19" ht="360" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1275</v>
       </c>
@@ -16143,17 +16181,17 @@
         <v>1281</v>
       </c>
       <c r="J284" s="1"/>
-      <c r="K284" s="5"/>
-      <c r="L284" s="5"/>
-      <c r="M284" s="5"/>
-      <c r="N284" s="5"/>
+      <c r="K284" s="4"/>
+      <c r="L284" s="4"/>
+      <c r="M284" s="4"/>
+      <c r="N284" s="4"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
-      <c r="R284" s="6"/>
+      <c r="R284" s="5"/>
       <c r="S284" s="1"/>
     </row>
-    <row r="285" spans="1:19" ht="360" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1282</v>
       </c>
@@ -16182,17 +16220,17 @@
         <v>1281</v>
       </c>
       <c r="J285" s="1"/>
-      <c r="K285" s="5"/>
-      <c r="L285" s="5"/>
-      <c r="M285" s="9"/>
-      <c r="N285" s="9"/>
+      <c r="K285" s="4"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="8"/>
+      <c r="N285" s="8"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
-      <c r="R285" s="6"/>
+      <c r="R285" s="5"/>
       <c r="S285" s="1"/>
     </row>
-    <row r="286" spans="1:19" ht="360" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1285</v>
       </c>
@@ -16221,17 +16259,17 @@
         <v>1281</v>
       </c>
       <c r="J286" s="1"/>
-      <c r="K286" s="5"/>
-      <c r="L286" s="5"/>
-      <c r="M286" s="5"/>
-      <c r="N286" s="5"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="4"/>
+      <c r="N286" s="4"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
-      <c r="R286" s="6"/>
+      <c r="R286" s="5"/>
       <c r="S286" s="1"/>
     </row>
-    <row r="287" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1288</v>
       </c>
@@ -16260,17 +16298,17 @@
         <v>1294</v>
       </c>
       <c r="J287" s="1"/>
-      <c r="K287" s="5"/>
-      <c r="L287" s="5"/>
-      <c r="M287" s="9"/>
-      <c r="N287" s="9"/>
+      <c r="K287" s="4"/>
+      <c r="L287" s="4"/>
+      <c r="M287" s="8"/>
+      <c r="N287" s="8"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
-      <c r="R287" s="6"/>
+      <c r="R287" s="5"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1295</v>
       </c>
@@ -16299,17 +16337,17 @@
         <v>1294</v>
       </c>
       <c r="J288" s="1"/>
-      <c r="K288" s="5"/>
-      <c r="L288" s="5"/>
-      <c r="M288" s="5"/>
-      <c r="N288" s="5"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="4"/>
+      <c r="M288" s="4"/>
+      <c r="N288" s="4"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
-      <c r="R288" s="6"/>
+      <c r="R288" s="5"/>
       <c r="S288" s="1"/>
     </row>
-    <row r="289" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1298</v>
       </c>
@@ -16338,17 +16376,17 @@
         <v>1294</v>
       </c>
       <c r="J289" s="1"/>
-      <c r="K289" s="5"/>
-      <c r="L289" s="5"/>
-      <c r="M289" s="5"/>
-      <c r="N289" s="5"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="4"/>
+      <c r="M289" s="4"/>
+      <c r="N289" s="4"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
-      <c r="R289" s="6"/>
+      <c r="R289" s="5"/>
       <c r="S289" s="1"/>
     </row>
-    <row r="290" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1301</v>
       </c>
@@ -16377,17 +16415,17 @@
         <v>1308</v>
       </c>
       <c r="J290" s="1"/>
-      <c r="K290" s="5"/>
-      <c r="L290" s="5"/>
-      <c r="M290" s="5"/>
-      <c r="N290" s="5"/>
+      <c r="K290" s="4"/>
+      <c r="L290" s="4"/>
+      <c r="M290" s="4"/>
+      <c r="N290" s="4"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
-      <c r="R290" s="6"/>
+      <c r="R290" s="5"/>
       <c r="S290" s="1"/>
     </row>
-    <row r="291" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1309</v>
       </c>
@@ -16416,17 +16454,17 @@
         <v>1308</v>
       </c>
       <c r="J291" s="1"/>
-      <c r="K291" s="5"/>
-      <c r="L291" s="5"/>
-      <c r="M291" s="5"/>
-      <c r="N291" s="5"/>
+      <c r="K291" s="4"/>
+      <c r="L291" s="4"/>
+      <c r="M291" s="4"/>
+      <c r="N291" s="4"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
-      <c r="R291" s="6"/>
+      <c r="R291" s="5"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1312</v>
       </c>
@@ -16455,17 +16493,17 @@
         <v>1318</v>
       </c>
       <c r="J292" s="1"/>
-      <c r="K292" s="5"/>
-      <c r="L292" s="7"/>
-      <c r="M292" s="5"/>
-      <c r="N292" s="5"/>
+      <c r="K292" s="4"/>
+      <c r="L292" s="6"/>
+      <c r="M292" s="4"/>
+      <c r="N292" s="4"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
-      <c r="R292" s="6"/>
+      <c r="R292" s="5"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1319</v>
       </c>
@@ -16494,17 +16532,17 @@
         <v>1325</v>
       </c>
       <c r="J293" s="1"/>
-      <c r="K293" s="5"/>
-      <c r="L293" s="7"/>
-      <c r="M293" s="5"/>
-      <c r="N293" s="5"/>
+      <c r="K293" s="4"/>
+      <c r="L293" s="6"/>
+      <c r="M293" s="4"/>
+      <c r="N293" s="4"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
-      <c r="R293" s="6"/>
+      <c r="R293" s="5"/>
       <c r="S293" s="1"/>
     </row>
-    <row r="294" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1326</v>
       </c>
@@ -16533,17 +16571,17 @@
         <v>1325</v>
       </c>
       <c r="J294" s="1"/>
-      <c r="K294" s="5"/>
-      <c r="L294" s="7"/>
-      <c r="M294" s="5"/>
-      <c r="N294" s="5"/>
+      <c r="K294" s="4"/>
+      <c r="L294" s="6"/>
+      <c r="M294" s="4"/>
+      <c r="N294" s="4"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
-      <c r="R294" s="6"/>
+      <c r="R294" s="5"/>
       <c r="S294" s="1"/>
     </row>
-    <row r="295" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1329</v>
       </c>
@@ -16572,17 +16610,17 @@
         <v>1325</v>
       </c>
       <c r="J295" s="1"/>
-      <c r="K295" s="5"/>
-      <c r="L295" s="5"/>
-      <c r="M295" s="5"/>
-      <c r="N295" s="5"/>
+      <c r="K295" s="4"/>
+      <c r="L295" s="4"/>
+      <c r="M295" s="4"/>
+      <c r="N295" s="4"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
-      <c r="R295" s="6"/>
+      <c r="R295" s="5"/>
       <c r="S295" s="1"/>
     </row>
-    <row r="296" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>1332</v>
       </c>
@@ -16611,17 +16649,17 @@
         <v>1339</v>
       </c>
       <c r="J296" s="1"/>
-      <c r="K296" s="5"/>
-      <c r="L296" s="5"/>
-      <c r="M296" s="5"/>
-      <c r="N296" s="5"/>
+      <c r="K296" s="4"/>
+      <c r="L296" s="4"/>
+      <c r="M296" s="4"/>
+      <c r="N296" s="4"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
-      <c r="R296" s="6"/>
+      <c r="R296" s="5"/>
       <c r="S296" s="1"/>
     </row>
-    <row r="297" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>1340</v>
       </c>
@@ -16650,17 +16688,17 @@
         <v>1339</v>
       </c>
       <c r="J297" s="1"/>
-      <c r="K297" s="5"/>
-      <c r="L297" s="5"/>
-      <c r="M297" s="5"/>
-      <c r="N297" s="5"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="4"/>
+      <c r="M297" s="4"/>
+      <c r="N297" s="4"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
-      <c r="R297" s="6"/>
+      <c r="R297" s="5"/>
       <c r="S297" s="1"/>
     </row>
-    <row r="298" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1343</v>
       </c>
@@ -16689,17 +16727,17 @@
         <v>1350</v>
       </c>
       <c r="J298" s="1"/>
-      <c r="K298" s="5"/>
-      <c r="L298" s="5"/>
-      <c r="M298" s="5"/>
-      <c r="N298" s="5"/>
+      <c r="K298" s="4"/>
+      <c r="L298" s="4"/>
+      <c r="M298" s="4"/>
+      <c r="N298" s="4"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
-      <c r="R298" s="6"/>
+      <c r="R298" s="5"/>
       <c r="S298" s="1"/>
     </row>
-    <row r="299" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1351</v>
       </c>
@@ -16728,17 +16766,17 @@
         <v>1350</v>
       </c>
       <c r="J299" s="1"/>
-      <c r="K299" s="5"/>
-      <c r="L299" s="5"/>
-      <c r="M299" s="5"/>
-      <c r="N299" s="5"/>
+      <c r="K299" s="4"/>
+      <c r="L299" s="4"/>
+      <c r="M299" s="4"/>
+      <c r="N299" s="4"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
-      <c r="R299" s="6"/>
+      <c r="R299" s="5"/>
       <c r="S299" s="1"/>
     </row>
-    <row r="300" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>1354</v>
       </c>
@@ -16767,17 +16805,17 @@
         <v>1359</v>
       </c>
       <c r="J300" s="1"/>
-      <c r="K300" s="5"/>
-      <c r="L300" s="5"/>
-      <c r="M300" s="5"/>
-      <c r="N300" s="5"/>
+      <c r="K300" s="4"/>
+      <c r="L300" s="4"/>
+      <c r="M300" s="4"/>
+      <c r="N300" s="4"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
-      <c r="R300" s="6"/>
+      <c r="R300" s="5"/>
       <c r="S300" s="1"/>
     </row>
-    <row r="301" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>1360</v>
       </c>
@@ -16806,17 +16844,17 @@
         <v>1365</v>
       </c>
       <c r="J301" s="1"/>
-      <c r="K301" s="5"/>
-      <c r="L301" s="5"/>
-      <c r="M301" s="5"/>
-      <c r="N301" s="5"/>
+      <c r="K301" s="4"/>
+      <c r="L301" s="4"/>
+      <c r="M301" s="4"/>
+      <c r="N301" s="4"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
-      <c r="R301" s="6"/>
+      <c r="R301" s="5"/>
       <c r="S301" s="1"/>
     </row>
-    <row r="302" spans="1:19" ht="330" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>1366</v>
       </c>
@@ -16845,17 +16883,17 @@
         <v>1374</v>
       </c>
       <c r="J302" s="1"/>
-      <c r="K302" s="5"/>
-      <c r="L302" s="5"/>
-      <c r="M302" s="5"/>
-      <c r="N302" s="5"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="4"/>
+      <c r="M302" s="4"/>
+      <c r="N302" s="4"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
-      <c r="R302" s="6"/>
+      <c r="R302" s="5"/>
       <c r="S302" s="1"/>
     </row>
-    <row r="303" spans="1:19" ht="330" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>1375</v>
       </c>
@@ -16884,17 +16922,17 @@
         <v>1374</v>
       </c>
       <c r="J303" s="1"/>
-      <c r="K303" s="5"/>
-      <c r="L303" s="5"/>
-      <c r="M303" s="5"/>
-      <c r="N303" s="5"/>
+      <c r="K303" s="4"/>
+      <c r="L303" s="4"/>
+      <c r="M303" s="4"/>
+      <c r="N303" s="4"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
-      <c r="R303" s="6"/>
+      <c r="R303" s="5"/>
       <c r="S303" s="1"/>
     </row>
-    <row r="304" spans="1:19" ht="330" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>1378</v>
       </c>
@@ -16923,17 +16961,17 @@
         <v>1374</v>
       </c>
       <c r="J304" s="1"/>
-      <c r="K304" s="5"/>
-      <c r="L304" s="5"/>
-      <c r="M304" s="5"/>
-      <c r="N304" s="5"/>
+      <c r="K304" s="4"/>
+      <c r="L304" s="4"/>
+      <c r="M304" s="4"/>
+      <c r="N304" s="4"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
-      <c r="R304" s="6"/>
+      <c r="R304" s="5"/>
       <c r="S304" s="1"/>
     </row>
-    <row r="305" spans="1:19" ht="330" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1381</v>
       </c>
@@ -16962,17 +17000,17 @@
         <v>1374</v>
       </c>
       <c r="J305" s="1"/>
-      <c r="K305" s="5"/>
-      <c r="L305" s="5"/>
-      <c r="M305" s="5"/>
-      <c r="N305" s="5"/>
+      <c r="K305" s="4"/>
+      <c r="L305" s="4"/>
+      <c r="M305" s="4"/>
+      <c r="N305" s="4"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
-      <c r="R305" s="6"/>
+      <c r="R305" s="5"/>
       <c r="S305" s="1"/>
     </row>
-    <row r="306" spans="1:19" ht="330" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1384</v>
       </c>
@@ -17001,17 +17039,17 @@
         <v>1374</v>
       </c>
       <c r="J306" s="1"/>
-      <c r="K306" s="5"/>
-      <c r="L306" s="5"/>
-      <c r="M306" s="5"/>
-      <c r="N306" s="5"/>
+      <c r="K306" s="4"/>
+      <c r="L306" s="4"/>
+      <c r="M306" s="4"/>
+      <c r="N306" s="4"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
-      <c r="R306" s="6"/>
+      <c r="R306" s="5"/>
       <c r="S306" s="1"/>
     </row>
-    <row r="307" spans="1:19" ht="330" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1387</v>
       </c>
@@ -17040,17 +17078,17 @@
         <v>1374</v>
       </c>
       <c r="J307" s="1"/>
-      <c r="K307" s="5"/>
-      <c r="L307" s="5"/>
-      <c r="M307" s="5"/>
-      <c r="N307" s="5"/>
+      <c r="K307" s="4"/>
+      <c r="L307" s="4"/>
+      <c r="M307" s="4"/>
+      <c r="N307" s="4"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
-      <c r="R307" s="6"/>
+      <c r="R307" s="5"/>
       <c r="S307" s="1"/>
     </row>
-    <row r="308" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>1390</v>
       </c>
@@ -17079,17 +17117,17 @@
         <v>1397</v>
       </c>
       <c r="J308" s="1"/>
-      <c r="K308" s="5"/>
-      <c r="L308" s="5"/>
-      <c r="M308" s="5"/>
-      <c r="N308" s="5"/>
+      <c r="K308" s="4"/>
+      <c r="L308" s="4"/>
+      <c r="M308" s="4"/>
+      <c r="N308" s="4"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
-      <c r="R308" s="6"/>
+      <c r="R308" s="5"/>
       <c r="S308" s="1"/>
     </row>
-    <row r="309" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1398</v>
       </c>
@@ -17118,17 +17156,17 @@
         <v>1397</v>
       </c>
       <c r="J309" s="1"/>
-      <c r="K309" s="5"/>
-      <c r="L309" s="5"/>
-      <c r="M309" s="5"/>
-      <c r="N309" s="5"/>
+      <c r="K309" s="4"/>
+      <c r="L309" s="4"/>
+      <c r="M309" s="4"/>
+      <c r="N309" s="4"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
-      <c r="R309" s="6"/>
+      <c r="R309" s="5"/>
       <c r="S309" s="1"/>
     </row>
-    <row r="310" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17157,17 +17195,17 @@
         <v>1408</v>
       </c>
       <c r="J310" s="1"/>
-      <c r="K310" s="5"/>
-      <c r="L310" s="5"/>
-      <c r="M310" s="5"/>
-      <c r="N310" s="5"/>
+      <c r="K310" s="4"/>
+      <c r="L310" s="4"/>
+      <c r="M310" s="4"/>
+      <c r="N310" s="4"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
-      <c r="R310" s="6"/>
+      <c r="R310" s="5"/>
       <c r="S310" s="1"/>
     </row>
-    <row r="311" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1409</v>
       </c>
@@ -17196,17 +17234,17 @@
         <v>1408</v>
       </c>
       <c r="J311" s="1"/>
-      <c r="K311" s="5"/>
-      <c r="L311" s="5"/>
-      <c r="M311" s="5"/>
-      <c r="N311" s="5"/>
+      <c r="K311" s="4"/>
+      <c r="L311" s="4"/>
+      <c r="M311" s="4"/>
+      <c r="N311" s="4"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
-      <c r="R311" s="6"/>
+      <c r="R311" s="5"/>
       <c r="S311" s="1"/>
     </row>
-    <row r="312" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1412</v>
       </c>
@@ -17235,17 +17273,17 @@
         <v>1408</v>
       </c>
       <c r="J312" s="1"/>
-      <c r="K312" s="5"/>
-      <c r="L312" s="5"/>
-      <c r="M312" s="5"/>
-      <c r="N312" s="5"/>
+      <c r="K312" s="4"/>
+      <c r="L312" s="4"/>
+      <c r="M312" s="4"/>
+      <c r="N312" s="4"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
-      <c r="R312" s="6"/>
+      <c r="R312" s="5"/>
       <c r="S312" s="1"/>
     </row>
-    <row r="313" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>1415</v>
       </c>
@@ -17274,17 +17312,17 @@
         <v>1420</v>
       </c>
       <c r="J313" s="1"/>
-      <c r="K313" s="5"/>
-      <c r="L313" s="5"/>
-      <c r="M313" s="5"/>
-      <c r="N313" s="5"/>
+      <c r="K313" s="4"/>
+      <c r="L313" s="4"/>
+      <c r="M313" s="4"/>
+      <c r="N313" s="4"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
-      <c r="R313" s="6"/>
+      <c r="R313" s="5"/>
       <c r="S313" s="1"/>
     </row>
-    <row r="314" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1421</v>
       </c>
@@ -17313,17 +17351,17 @@
         <v>1420</v>
       </c>
       <c r="J314" s="1"/>
-      <c r="K314" s="5"/>
-      <c r="L314" s="5"/>
-      <c r="M314" s="5"/>
-      <c r="N314" s="5"/>
+      <c r="K314" s="4"/>
+      <c r="L314" s="4"/>
+      <c r="M314" s="4"/>
+      <c r="N314" s="4"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
-      <c r="R314" s="6"/>
+      <c r="R314" s="5"/>
       <c r="S314" s="1"/>
     </row>
-    <row r="315" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>1426</v>
       </c>
@@ -17352,17 +17390,17 @@
         <v>1420</v>
       </c>
       <c r="J315" s="1"/>
-      <c r="K315" s="5"/>
-      <c r="L315" s="7"/>
-      <c r="M315" s="5"/>
-      <c r="N315" s="5"/>
+      <c r="K315" s="4"/>
+      <c r="L315" s="6"/>
+      <c r="M315" s="4"/>
+      <c r="N315" s="4"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
-      <c r="R315" s="6"/>
+      <c r="R315" s="5"/>
       <c r="S315" s="1"/>
     </row>
-    <row r="316" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1429</v>
       </c>
@@ -17391,17 +17429,17 @@
         <v>1420</v>
       </c>
       <c r="J316" s="1"/>
-      <c r="K316" s="5"/>
-      <c r="L316" s="5"/>
-      <c r="M316" s="5"/>
-      <c r="N316" s="5"/>
+      <c r="K316" s="4"/>
+      <c r="L316" s="4"/>
+      <c r="M316" s="4"/>
+      <c r="N316" s="4"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
-      <c r="R316" s="6"/>
+      <c r="R316" s="5"/>
       <c r="S316" s="1"/>
     </row>
-    <row r="317" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17430,17 +17468,17 @@
         <v>1439</v>
       </c>
       <c r="J317" s="1"/>
-      <c r="K317" s="5"/>
-      <c r="L317" s="7"/>
-      <c r="M317" s="5"/>
-      <c r="N317" s="5"/>
+      <c r="K317" s="4"/>
+      <c r="L317" s="6"/>
+      <c r="M317" s="4"/>
+      <c r="N317" s="4"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
-      <c r="R317" s="6"/>
+      <c r="R317" s="5"/>
       <c r="S317" s="1"/>
     </row>
-    <row r="318" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1440</v>
       </c>
@@ -17469,17 +17507,17 @@
         <v>1439</v>
       </c>
       <c r="J318" s="1"/>
-      <c r="K318" s="5"/>
-      <c r="L318" s="7"/>
-      <c r="M318" s="5"/>
-      <c r="N318" s="5"/>
+      <c r="K318" s="4"/>
+      <c r="L318" s="6"/>
+      <c r="M318" s="4"/>
+      <c r="N318" s="4"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
-      <c r="R318" s="6"/>
+      <c r="R318" s="5"/>
       <c r="S318" s="1"/>
     </row>
-    <row r="319" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1443</v>
       </c>
@@ -17508,17 +17546,17 @@
         <v>1439</v>
       </c>
       <c r="J319" s="1"/>
-      <c r="K319" s="5"/>
-      <c r="L319" s="5"/>
-      <c r="M319" s="5"/>
-      <c r="N319" s="5"/>
+      <c r="K319" s="4"/>
+      <c r="L319" s="4"/>
+      <c r="M319" s="4"/>
+      <c r="N319" s="4"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
-      <c r="R319" s="6"/>
+      <c r="R319" s="5"/>
       <c r="S319" s="1"/>
     </row>
-    <row r="320" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1446</v>
       </c>
@@ -17547,17 +17585,17 @@
         <v>1453</v>
       </c>
       <c r="J320" s="1"/>
-      <c r="K320" s="5"/>
-      <c r="L320" s="5"/>
-      <c r="M320" s="9"/>
-      <c r="N320" s="9"/>
+      <c r="K320" s="4"/>
+      <c r="L320" s="4"/>
+      <c r="M320" s="8"/>
+      <c r="N320" s="8"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
-      <c r="R320" s="6"/>
+      <c r="R320" s="5"/>
       <c r="S320" s="1"/>
     </row>
-    <row r="321" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17586,14 +17624,14 @@
         <v>1453</v>
       </c>
       <c r="J321" s="1"/>
-      <c r="K321" s="5"/>
-      <c r="L321" s="5"/>
-      <c r="M321" s="5"/>
-      <c r="N321" s="5"/>
+      <c r="K321" s="4"/>
+      <c r="L321" s="4"/>
+      <c r="M321" s="4"/>
+      <c r="N321" s="4"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
-      <c r="R321" s="6"/>
+      <c r="R321" s="5"/>
       <c r="S321" s="1"/>
     </row>
   </sheetData>

--- a/Assessment Template.xlsx
+++ b/Assessment Template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/temp/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA78926-AA9E-4859-95DD-4D0F2465F019}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADC0568-72FF-46FD-87A2-668D496E07C0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
+    <workbookView xWindow="-28920" yWindow="-945" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="CMMC Assessment Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Assessment Scope Name" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Blanks are treated as Unassessed. Remove not-applicable controls or mark as Not Applicable</t>
         </r>
       </text>
     </comment>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1469">
   <si>
     <t>Sort-As</t>
   </si>
@@ -4517,13 +4517,40 @@
   </si>
   <si>
     <t>Implementation Details</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>https://securitybagel.github.io/CMMC-Bagel-Lite/policy-example.html</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Access Management</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Triennial</t>
+  </si>
+  <si>
+    <t>Not Met</t>
+  </si>
+  <si>
+    <t>WK-001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4565,6 +4592,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4599,7 +4651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4626,6 +4678,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5068,8 +5135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60066FE1-9CE5-4478-8ECD-6949E065A1DA}">
   <dimension ref="A1:S321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S193" sqref="S193"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J193" sqref="J193:S199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5084,7 +5151,7 @@
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
@@ -12631,16 +12698,28 @@
       <c r="I193" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="J193" s="1"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="1"/>
+      <c r="J193" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="P193" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q193" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R193" s="12">
+        <v>45371</v>
+      </c>
+      <c r="S193" s="10"/>
     </row>
     <row r="194" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -12670,16 +12749,18 @@
       <c r="I194" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J194" s="1"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="M194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="5"/>
-      <c r="S194" s="1"/>
+      <c r="J194" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K194" s="11"/>
+      <c r="L194" s="13"/>
+      <c r="M194" s="14"/>
+      <c r="N194" s="14"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="10"/>
     </row>
     <row r="195" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
@@ -12709,16 +12790,30 @@
       <c r="I195" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J195" s="1"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="1"/>
+      <c r="J195" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L195" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P195" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q195" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R195" s="12">
+        <v>45585</v>
+      </c>
+      <c r="S195" s="10"/>
     </row>
     <row r="196" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -12748,16 +12843,30 @@
       <c r="I196" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J196" s="1"/>
-      <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="1"/>
+      <c r="J196" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K196" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L196" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P196" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q196" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R196" s="12">
+        <v>45585</v>
+      </c>
+      <c r="S196" s="10"/>
     </row>
     <row r="197" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -12787,16 +12896,30 @@
       <c r="I197" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J197" s="1"/>
-      <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="1"/>
+      <c r="J197" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L197" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P197" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q197" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R197" s="12">
+        <v>45585</v>
+      </c>
+      <c r="S197" s="10"/>
     </row>
     <row r="198" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -12826,16 +12949,30 @@
       <c r="I198" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="J198" s="1"/>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="5"/>
-      <c r="S198" s="1"/>
+      <c r="J198" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L198" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P198" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q198" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R198" s="12">
+        <v>45585</v>
+      </c>
+      <c r="S198" s="10"/>
     </row>
     <row r="199" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -12865,16 +13002,32 @@
       <c r="I199" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="J199" s="1"/>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="1"/>
+      <c r="J199" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K199" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L199" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P199" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q199" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R199" s="12">
+        <v>45585</v>
+      </c>
+      <c r="S199" s="10" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="200" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -17643,10 +17796,15 @@
       <formula1>"Met, Not Met, Not Applicable"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K193" r:id="rId1" xr:uid="{BCFF6073-2D8E-4466-8680-9CEBF1567098}"/>
+    <hyperlink ref="K195" r:id="rId2" xr:uid="{BD7817B6-9DB5-4CF7-84B0-C1AB7343EF4B}"/>
+    <hyperlink ref="K196:K199" r:id="rId3" display="https://securitybagel.github.io/CMMC-Bagel-Lite/policy-example.html" xr:uid="{6C72ACAA-3948-4C13-A585-200D818F64C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assessment Template.xlsx
+++ b/Assessment Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/temp/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/Github docs/Templates/Assessment Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADC0568-72FF-46FD-87A2-668D496E07C0}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D073A6AC-C573-49F2-A195-6D76E95BBF8D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-945" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment Scope Name" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1470">
   <si>
     <t>Sort-As</t>
   </si>
@@ -4544,6 +4544,9 @@
   </si>
   <si>
     <t>WK-001</t>
+  </si>
+  <si>
+    <t>WK-002</t>
   </si>
 </sst>
 </file>
@@ -4651,7 +4654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4669,9 +4672,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4784,13 +4784,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F1A7959-175D-4133-8982-36F8B70DC173}" name="Table1" displayName="Table1" ref="A1:S321" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S321" xr:uid="{3F1A7959-175D-4133-8982-36F8B70DC173}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Maintenance"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S321" xr:uid="{3F1A7959-175D-4133-8982-36F8B70DC173}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{AA6860B8-5831-4178-A7D7-4112C65A6207}" name="Sort-As" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{17A4E935-A236-43E4-82FB-51C661B45DDB}" name="Family" dataDxfId="17"/>
@@ -5136,7 +5130,7 @@
   <dimension ref="A1:S321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J193" sqref="J193:S199"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5190,7 +5184,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -5217,11 +5211,11 @@
       <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="405" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5249,18 +5243,30 @@
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R2" s="11">
+        <v>45371</v>
+      </c>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" ht="405" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -5288,18 +5294,20 @@
       <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -5327,18 +5335,32 @@
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R4" s="11">
+        <v>45585</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="405" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -5366,18 +5388,34 @@
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R5" s="11">
+        <v>45585</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="405" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -5405,18 +5443,32 @@
       <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="405" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R6" s="11">
+        <v>45585</v>
+      </c>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="405" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -5444,18 +5496,32 @@
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R7" s="11">
+        <v>45585</v>
+      </c>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -5483,18 +5549,34 @@
       <c r="I8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R8" s="11">
+        <v>45585</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -5522,18 +5604,32 @@
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R9" s="11">
+        <v>45585</v>
+      </c>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -5572,7 +5668,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -5611,7 +5707,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5650,7 +5746,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -5689,7 +5785,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -5728,7 +5824,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -5767,7 +5863,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -5806,7 +5902,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -5845,7 +5941,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -5884,7 +5980,7 @@
       <c r="R18" s="5"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -5923,7 +6019,7 @@
       <c r="R19" s="5"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -5962,7 +6058,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -6001,7 +6097,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -6040,7 +6136,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -6079,7 +6175,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -6118,7 +6214,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
@@ -6157,7 +6253,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
@@ -6196,7 +6292,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>127</v>
       </c>
@@ -6235,7 +6331,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
@@ -6274,7 +6370,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -6305,15 +6401,15 @@
       <c r="J29" s="1"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="5"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -6344,15 +6440,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="5"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
@@ -6391,7 +6487,7 @@
       <c r="R31" s="5"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
@@ -6430,7 +6526,7 @@
       <c r="R32" s="5"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
@@ -6469,7 +6565,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>162</v>
       </c>
@@ -6508,7 +6604,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
@@ -6547,7 +6643,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
@@ -6586,7 +6682,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -6625,7 +6721,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>183</v>
       </c>
@@ -6664,7 +6760,7 @@
       <c r="R38" s="5"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>186</v>
       </c>
@@ -6703,7 +6799,7 @@
       <c r="R39" s="5"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>189</v>
       </c>
@@ -6742,7 +6838,7 @@
       <c r="R40" s="5"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>192</v>
       </c>
@@ -6781,7 +6877,7 @@
       <c r="R41" s="5"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
@@ -6820,7 +6916,7 @@
       <c r="R42" s="5"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>202</v>
       </c>
@@ -6859,7 +6955,7 @@
       <c r="R43" s="5"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>210</v>
       </c>
@@ -6898,7 +6994,7 @@
       <c r="R44" s="5"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
@@ -6937,7 +7033,7 @@
       <c r="R45" s="5"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>220</v>
       </c>
@@ -6976,7 +7072,7 @@
       <c r="R46" s="5"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>223</v>
       </c>
@@ -7015,7 +7111,7 @@
       <c r="R47" s="5"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>226</v>
       </c>
@@ -7054,7 +7150,7 @@
       <c r="R48" s="5"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>229</v>
       </c>
@@ -7093,7 +7189,7 @@
       <c r="R49" s="5"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>237</v>
       </c>
@@ -7132,7 +7228,7 @@
       <c r="R50" s="5"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>240</v>
       </c>
@@ -7171,7 +7267,7 @@
       <c r="R51" s="5"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>247</v>
       </c>
@@ -7210,7 +7306,7 @@
       <c r="R52" s="5"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>250</v>
       </c>
@@ -7249,7 +7345,7 @@
       <c r="R53" s="5"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>258</v>
       </c>
@@ -7288,7 +7384,7 @@
       <c r="R54" s="5"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>261</v>
       </c>
@@ -7327,7 +7423,7 @@
       <c r="R55" s="5"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>264</v>
       </c>
@@ -7366,7 +7462,7 @@
       <c r="R56" s="5"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>272</v>
       </c>
@@ -7405,7 +7501,7 @@
       <c r="R57" s="5"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>275</v>
       </c>
@@ -7444,7 +7540,7 @@
       <c r="R58" s="5"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>283</v>
       </c>
@@ -7483,7 +7579,7 @@
       <c r="R59" s="5"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>286</v>
       </c>
@@ -7522,7 +7618,7 @@
       <c r="R60" s="5"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>289</v>
       </c>
@@ -7561,7 +7657,7 @@
       <c r="R61" s="5"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>292</v>
       </c>
@@ -7600,7 +7696,7 @@
       <c r="R62" s="5"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>295</v>
       </c>
@@ -7639,7 +7735,7 @@
       <c r="R63" s="5"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>298</v>
       </c>
@@ -7678,7 +7774,7 @@
       <c r="R64" s="5"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>306</v>
       </c>
@@ -7717,7 +7813,7 @@
       <c r="R65" s="5"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>309</v>
       </c>
@@ -7756,7 +7852,7 @@
       <c r="R66" s="5"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>312</v>
       </c>
@@ -7795,7 +7891,7 @@
       <c r="R67" s="5"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>320</v>
       </c>
@@ -7834,7 +7930,7 @@
       <c r="R68" s="5"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>323</v>
       </c>
@@ -7873,7 +7969,7 @@
       <c r="R69" s="5"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>326</v>
       </c>
@@ -7912,7 +8008,7 @@
       <c r="R70" s="5"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>329</v>
       </c>
@@ -7951,7 +8047,7 @@
       <c r="R71" s="5"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>332</v>
       </c>
@@ -7990,7 +8086,7 @@
       <c r="R72" s="5"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>341</v>
       </c>
@@ -8029,7 +8125,7 @@
       <c r="R73" s="5"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>344</v>
       </c>
@@ -8068,7 +8164,7 @@
       <c r="R74" s="5"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>347</v>
       </c>
@@ -8107,7 +8203,7 @@
       <c r="R75" s="5"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>350</v>
       </c>
@@ -8146,7 +8242,7 @@
       <c r="R76" s="5"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>358</v>
       </c>
@@ -8185,7 +8281,7 @@
       <c r="R77" s="5"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>361</v>
       </c>
@@ -8224,7 +8320,7 @@
       <c r="R78" s="5"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>364</v>
       </c>
@@ -8263,7 +8359,7 @@
       <c r="R79" s="5"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>372</v>
       </c>
@@ -8302,7 +8398,7 @@
       <c r="R80" s="5"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>375</v>
       </c>
@@ -8341,7 +8437,7 @@
       <c r="R81" s="5"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>384</v>
       </c>
@@ -8380,7 +8476,7 @@
       <c r="R82" s="5"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>387</v>
       </c>
@@ -8419,7 +8515,7 @@
       <c r="R83" s="5"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>390</v>
       </c>
@@ -8458,7 +8554,7 @@
       <c r="R84" s="5"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>393</v>
       </c>
@@ -8497,7 +8593,7 @@
       <c r="R85" s="5"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>396</v>
       </c>
@@ -8536,7 +8632,7 @@
       <c r="R86" s="5"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>399</v>
       </c>
@@ -8575,7 +8671,7 @@
       <c r="R87" s="5"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>405</v>
       </c>
@@ -8614,7 +8710,7 @@
       <c r="R88" s="5"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>407</v>
       </c>
@@ -8653,7 +8749,7 @@
       <c r="R89" s="5"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>415</v>
       </c>
@@ -8692,7 +8788,7 @@
       <c r="R90" s="5"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>418</v>
       </c>
@@ -8731,7 +8827,7 @@
       <c r="R91" s="5"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>421</v>
       </c>
@@ -8770,7 +8866,7 @@
       <c r="R92" s="5"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>429</v>
       </c>
@@ -8809,7 +8905,7 @@
       <c r="R93" s="5"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>432</v>
       </c>
@@ -8848,7 +8944,7 @@
       <c r="R94" s="5"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>435</v>
       </c>
@@ -8887,7 +8983,7 @@
       <c r="R95" s="5"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>443</v>
       </c>
@@ -8926,7 +9022,7 @@
       <c r="R96" s="5"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>446</v>
       </c>
@@ -8965,7 +9061,7 @@
       <c r="R97" s="5"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>454</v>
       </c>
@@ -9004,7 +9100,7 @@
       <c r="R98" s="5"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>457</v>
       </c>
@@ -9043,7 +9139,7 @@
       <c r="R99" s="5"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>465</v>
       </c>
@@ -9082,7 +9178,7 @@
       <c r="R100" s="5"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>468</v>
       </c>
@@ -9121,7 +9217,7 @@
       <c r="R101" s="5"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>471</v>
       </c>
@@ -9160,7 +9256,7 @@
       <c r="R102" s="5"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>478</v>
       </c>
@@ -9199,7 +9295,7 @@
       <c r="R103" s="5"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>481</v>
       </c>
@@ -9238,7 +9334,7 @@
       <c r="R104" s="5"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>484</v>
       </c>
@@ -9277,7 +9373,7 @@
       <c r="R105" s="5"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>487</v>
       </c>
@@ -9316,7 +9412,7 @@
       <c r="R106" s="5"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>490</v>
       </c>
@@ -9355,7 +9451,7 @@
       <c r="R107" s="5"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>493</v>
       </c>
@@ -9394,7 +9490,7 @@
       <c r="R108" s="5"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>500</v>
       </c>
@@ -9433,7 +9529,7 @@
       <c r="R109" s="5"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>503</v>
       </c>
@@ -9472,7 +9568,7 @@
       <c r="R110" s="5"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>512</v>
       </c>
@@ -9511,7 +9607,7 @@
       <c r="R111" s="5"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>515</v>
       </c>
@@ -9550,7 +9646,7 @@
       <c r="R112" s="5"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>518</v>
       </c>
@@ -9589,7 +9685,7 @@
       <c r="R113" s="5"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>521</v>
       </c>
@@ -9628,7 +9724,7 @@
       <c r="R114" s="5"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>524</v>
       </c>
@@ -9667,7 +9763,7 @@
       <c r="R115" s="5"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>527</v>
       </c>
@@ -9706,7 +9802,7 @@
       <c r="R116" s="5"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>535</v>
       </c>
@@ -9745,7 +9841,7 @@
       <c r="R117" s="5"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>538</v>
       </c>
@@ -9784,7 +9880,7 @@
       <c r="R118" s="5"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>546</v>
       </c>
@@ -9823,7 +9919,7 @@
       <c r="R119" s="5"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>549</v>
       </c>
@@ -9862,7 +9958,7 @@
       <c r="R120" s="5"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>552</v>
       </c>
@@ -9901,7 +9997,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>555</v>
       </c>
@@ -9940,7 +10036,7 @@
       <c r="R122" s="5"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>562</v>
       </c>
@@ -9979,7 +10075,7 @@
       <c r="R123" s="5"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>570</v>
       </c>
@@ -10018,7 +10114,7 @@
       <c r="R124" s="5"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>573</v>
       </c>
@@ -10057,7 +10153,7 @@
       <c r="R125" s="5"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>576</v>
       </c>
@@ -10096,7 +10192,7 @@
       <c r="R126" s="5"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>579</v>
       </c>
@@ -10135,7 +10231,7 @@
       <c r="R127" s="5"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>582</v>
       </c>
@@ -10174,7 +10270,7 @@
       <c r="R128" s="5"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>585</v>
       </c>
@@ -10213,7 +10309,7 @@
       <c r="R129" s="5"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>588</v>
       </c>
@@ -10252,7 +10348,7 @@
       <c r="R130" s="5"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>591</v>
       </c>
@@ -10291,7 +10387,7 @@
       <c r="R131" s="5"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>598</v>
       </c>
@@ -10330,7 +10426,7 @@
       <c r="R132" s="5"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>601</v>
       </c>
@@ -10369,7 +10465,7 @@
       <c r="R133" s="5"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>609</v>
       </c>
@@ -10408,7 +10504,7 @@
       <c r="R134" s="5"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>612</v>
       </c>
@@ -10447,7 +10543,7 @@
       <c r="R135" s="5"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>615</v>
       </c>
@@ -10486,7 +10582,7 @@
       <c r="R136" s="5"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>618</v>
       </c>
@@ -10525,7 +10621,7 @@
       <c r="R137" s="5"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>621</v>
       </c>
@@ -10564,7 +10660,7 @@
       <c r="R138" s="5"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>624</v>
       </c>
@@ -10603,7 +10699,7 @@
       <c r="R139" s="5"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>627</v>
       </c>
@@ -10642,7 +10738,7 @@
       <c r="R140" s="5"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>630</v>
       </c>
@@ -10681,7 +10777,7 @@
       <c r="R141" s="5"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>633</v>
       </c>
@@ -10720,7 +10816,7 @@
       <c r="R142" s="5"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>636</v>
       </c>
@@ -10759,7 +10855,7 @@
       <c r="R143" s="5"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>639</v>
       </c>
@@ -10798,7 +10894,7 @@
       <c r="R144" s="5"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>642</v>
       </c>
@@ -10837,7 +10933,7 @@
       <c r="R145" s="5"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>645</v>
       </c>
@@ -10876,7 +10972,7 @@
       <c r="R146" s="5"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>648</v>
       </c>
@@ -10915,7 +11011,7 @@
       <c r="R147" s="5"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>651</v>
       </c>
@@ -10954,7 +11050,7 @@
       <c r="R148" s="5"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>659</v>
       </c>
@@ -10993,7 +11089,7 @@
       <c r="R149" s="5"/>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>662</v>
       </c>
@@ -11032,7 +11128,7 @@
       <c r="R150" s="5"/>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>665</v>
       </c>
@@ -11071,7 +11167,7 @@
       <c r="R151" s="5"/>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>673</v>
       </c>
@@ -11110,7 +11206,7 @@
       <c r="R152" s="5"/>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>676</v>
       </c>
@@ -11149,7 +11245,7 @@
       <c r="R153" s="5"/>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>679</v>
       </c>
@@ -11188,7 +11284,7 @@
       <c r="R154" s="5"/>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>688</v>
       </c>
@@ -11227,7 +11323,7 @@
       <c r="R155" s="5"/>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>691</v>
       </c>
@@ -11266,7 +11362,7 @@
       <c r="R156" s="5"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>694</v>
       </c>
@@ -11305,7 +11401,7 @@
       <c r="R157" s="5"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>702</v>
       </c>
@@ -11344,7 +11440,7 @@
       <c r="R158" s="5"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>705</v>
       </c>
@@ -11383,7 +11479,7 @@
       <c r="R159" s="5"/>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>708</v>
       </c>
@@ -11422,7 +11518,7 @@
       <c r="R160" s="5"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>715</v>
       </c>
@@ -11461,7 +11557,7 @@
       <c r="R161" s="5"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>718</v>
       </c>
@@ -11500,7 +11596,7 @@
       <c r="R162" s="5"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>721</v>
       </c>
@@ -11539,7 +11635,7 @@
       <c r="R163" s="5"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>724</v>
       </c>
@@ -11578,7 +11674,7 @@
       <c r="R164" s="5"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>730</v>
       </c>
@@ -11617,7 +11713,7 @@
       <c r="R165" s="5"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>738</v>
       </c>
@@ -11656,7 +11752,7 @@
       <c r="R166" s="5"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>741</v>
       </c>
@@ -11695,7 +11791,7 @@
       <c r="R167" s="5"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>746</v>
       </c>
@@ -11734,7 +11830,7 @@
       <c r="R168" s="5"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>749</v>
       </c>
@@ -11773,7 +11869,7 @@
       <c r="R169" s="5"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>757</v>
       </c>
@@ -11812,7 +11908,7 @@
       <c r="R170" s="5"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>760</v>
       </c>
@@ -11851,7 +11947,7 @@
       <c r="R171" s="5"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>763</v>
       </c>
@@ -11890,7 +11986,7 @@
       <c r="R172" s="5"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>766</v>
       </c>
@@ -11929,7 +12025,7 @@
       <c r="R173" s="5"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>771</v>
       </c>
@@ -11968,7 +12064,7 @@
       <c r="R174" s="5"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>774</v>
       </c>
@@ -12007,7 +12103,7 @@
       <c r="R175" s="5"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>778</v>
       </c>
@@ -12046,7 +12142,7 @@
       <c r="R176" s="5"/>
       <c r="S176" s="1"/>
     </row>
-    <row r="177" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>783</v>
       </c>
@@ -12085,7 +12181,7 @@
       <c r="R177" s="5"/>
       <c r="S177" s="1"/>
     </row>
-    <row r="178" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>786</v>
       </c>
@@ -12124,7 +12220,7 @@
       <c r="R178" s="5"/>
       <c r="S178" s="1"/>
     </row>
-    <row r="179" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>792</v>
       </c>
@@ -12163,7 +12259,7 @@
       <c r="R179" s="5"/>
       <c r="S179" s="1"/>
     </row>
-    <row r="180" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>801</v>
       </c>
@@ -12202,7 +12298,7 @@
       <c r="R180" s="5"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>804</v>
       </c>
@@ -12241,7 +12337,7 @@
       <c r="R181" s="5"/>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>807</v>
       </c>
@@ -12280,7 +12376,7 @@
       <c r="R182" s="5"/>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>810</v>
       </c>
@@ -12319,7 +12415,7 @@
       <c r="R183" s="5"/>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>813</v>
       </c>
@@ -12358,7 +12454,7 @@
       <c r="R184" s="5"/>
       <c r="S184" s="1"/>
     </row>
-    <row r="185" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>816</v>
       </c>
@@ -12397,7 +12493,7 @@
       <c r="R185" s="5"/>
       <c r="S185" s="1"/>
     </row>
-    <row r="186" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>819</v>
       </c>
@@ -12436,7 +12532,7 @@
       <c r="R186" s="5"/>
       <c r="S186" s="1"/>
     </row>
-    <row r="187" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>827</v>
       </c>
@@ -12475,7 +12571,7 @@
       <c r="R187" s="5"/>
       <c r="S187" s="1"/>
     </row>
-    <row r="188" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>830</v>
       </c>
@@ -12514,7 +12610,7 @@
       <c r="R188" s="5"/>
       <c r="S188" s="1"/>
     </row>
-    <row r="189" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>833</v>
       </c>
@@ -12553,7 +12649,7 @@
       <c r="R189" s="5"/>
       <c r="S189" s="1"/>
     </row>
-    <row r="190" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>836</v>
       </c>
@@ -12592,7 +12688,7 @@
       <c r="R190" s="5"/>
       <c r="S190" s="1"/>
     </row>
-    <row r="191" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>839</v>
       </c>
@@ -12631,7 +12727,7 @@
       <c r="R191" s="5"/>
       <c r="S191" s="1"/>
     </row>
-    <row r="192" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>842</v>
       </c>
@@ -12698,28 +12794,16 @@
       <c r="I193" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="J193" s="10" t="s">
-        <v>1460</v>
-      </c>
-      <c r="K193" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L193" s="11"/>
-      <c r="M193" s="11"/>
-      <c r="N193" s="11"/>
-      <c r="O193" s="10" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P193" s="10" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q193" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="R193" s="12">
-        <v>45371</v>
-      </c>
-      <c r="S193" s="10"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="1"/>
     </row>
     <row r="194" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -12749,18 +12833,16 @@
       <c r="I194" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J194" s="10" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K194" s="11"/>
-      <c r="L194" s="13"/>
-      <c r="M194" s="14"/>
-      <c r="N194" s="14"/>
-      <c r="O194" s="10"/>
-      <c r="P194" s="10"/>
-      <c r="Q194" s="10"/>
-      <c r="R194" s="12"/>
-      <c r="S194" s="10"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="1"/>
     </row>
     <row r="195" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
@@ -12790,30 +12872,16 @@
       <c r="I195" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J195" s="10" t="s">
-        <v>1460</v>
-      </c>
-      <c r="K195" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L195" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M195" s="11"/>
-      <c r="N195" s="11"/>
-      <c r="O195" s="10" t="s">
-        <v>1466</v>
-      </c>
-      <c r="P195" s="10" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q195" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="R195" s="12">
-        <v>45585</v>
-      </c>
-      <c r="S195" s="10"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="1"/>
     </row>
     <row r="196" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -12843,30 +12911,16 @@
       <c r="I196" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J196" s="10" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K196" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L196" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M196" s="11"/>
-      <c r="N196" s="11"/>
-      <c r="O196" s="10" t="s">
-        <v>1466</v>
-      </c>
-      <c r="P196" s="10" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q196" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="R196" s="12">
-        <v>45585</v>
-      </c>
-      <c r="S196" s="10"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="1"/>
     </row>
     <row r="197" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -12896,30 +12950,16 @@
       <c r="I197" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="J197" s="10" t="s">
-        <v>1460</v>
-      </c>
-      <c r="K197" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L197" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M197" s="11"/>
-      <c r="N197" s="11"/>
-      <c r="O197" s="10" t="s">
-        <v>1466</v>
-      </c>
-      <c r="P197" s="10" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q197" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="R197" s="12">
-        <v>45585</v>
-      </c>
-      <c r="S197" s="10"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="1"/>
     </row>
     <row r="198" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -12949,30 +12989,16 @@
       <c r="I198" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="J198" s="10" t="s">
-        <v>1460</v>
-      </c>
-      <c r="K198" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L198" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M198" s="11"/>
-      <c r="N198" s="11"/>
-      <c r="O198" s="10" t="s">
-        <v>1466</v>
-      </c>
-      <c r="P198" s="10" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q198" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="R198" s="12">
-        <v>45585</v>
-      </c>
-      <c r="S198" s="10"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="1"/>
     </row>
     <row r="199" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -13002,32 +13028,16 @@
       <c r="I199" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="J199" s="10" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K199" s="11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L199" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M199" s="11"/>
-      <c r="N199" s="11"/>
-      <c r="O199" s="10" t="s">
-        <v>1466</v>
-      </c>
-      <c r="P199" s="10" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q199" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="R199" s="12">
-        <v>45585</v>
-      </c>
-      <c r="S199" s="10" t="s">
-        <v>1468</v>
-      </c>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="1"/>
     </row>
     <row r="200" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -13146,7 +13156,7 @@
       <c r="R202" s="5"/>
       <c r="S202" s="1"/>
     </row>
-    <row r="203" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>900</v>
       </c>
@@ -13185,7 +13195,7 @@
       <c r="R203" s="5"/>
       <c r="S203" s="1"/>
     </row>
-    <row r="204" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>909</v>
       </c>
@@ -13224,7 +13234,7 @@
       <c r="R204" s="5"/>
       <c r="S204" s="1"/>
     </row>
-    <row r="205" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>912</v>
       </c>
@@ -13263,7 +13273,7 @@
       <c r="R205" s="5"/>
       <c r="S205" s="1"/>
     </row>
-    <row r="206" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>915</v>
       </c>
@@ -13302,7 +13312,7 @@
       <c r="R206" s="5"/>
       <c r="S206" s="1"/>
     </row>
-    <row r="207" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>918</v>
       </c>
@@ -13341,7 +13351,7 @@
       <c r="R207" s="5"/>
       <c r="S207" s="1"/>
     </row>
-    <row r="208" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>925</v>
       </c>
@@ -13380,7 +13390,7 @@
       <c r="R208" s="5"/>
       <c r="S208" s="1"/>
     </row>
-    <row r="209" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>933</v>
       </c>
@@ -13419,7 +13429,7 @@
       <c r="R209" s="5"/>
       <c r="S209" s="1"/>
     </row>
-    <row r="210" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>936</v>
       </c>
@@ -13458,7 +13468,7 @@
       <c r="R210" s="5"/>
       <c r="S210" s="1"/>
     </row>
-    <row r="211" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>944</v>
       </c>
@@ -13497,7 +13507,7 @@
       <c r="R211" s="5"/>
       <c r="S211" s="1"/>
     </row>
-    <row r="212" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>947</v>
       </c>
@@ -13536,7 +13546,7 @@
       <c r="R212" s="5"/>
       <c r="S212" s="1"/>
     </row>
-    <row r="213" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>955</v>
       </c>
@@ -13575,7 +13585,7 @@
       <c r="R213" s="5"/>
       <c r="S213" s="1"/>
     </row>
-    <row r="214" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>958</v>
       </c>
@@ -13614,7 +13624,7 @@
       <c r="R214" s="5"/>
       <c r="S214" s="1"/>
     </row>
-    <row r="215" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>965</v>
       </c>
@@ -13653,7 +13663,7 @@
       <c r="R215" s="5"/>
       <c r="S215" s="1"/>
     </row>
-    <row r="216" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>972</v>
       </c>
@@ -13692,7 +13702,7 @@
       <c r="R216" s="5"/>
       <c r="S216" s="1"/>
     </row>
-    <row r="217" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>977</v>
       </c>
@@ -13731,7 +13741,7 @@
       <c r="R217" s="5"/>
       <c r="S217" s="1"/>
     </row>
-    <row r="218" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>984</v>
       </c>
@@ -13770,7 +13780,7 @@
       <c r="R218" s="5"/>
       <c r="S218" s="1"/>
     </row>
-    <row r="219" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>992</v>
       </c>
@@ -13809,7 +13819,7 @@
       <c r="R219" s="5"/>
       <c r="S219" s="1"/>
     </row>
-    <row r="220" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1000</v>
       </c>
@@ -13848,7 +13858,7 @@
       <c r="R220" s="5"/>
       <c r="S220" s="1"/>
     </row>
-    <row r="221" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1003</v>
       </c>
@@ -13887,7 +13897,7 @@
       <c r="R221" s="5"/>
       <c r="S221" s="1"/>
     </row>
-    <row r="222" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1006</v>
       </c>
@@ -13926,7 +13936,7 @@
       <c r="R222" s="5"/>
       <c r="S222" s="1"/>
     </row>
-    <row r="223" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1015</v>
       </c>
@@ -13965,7 +13975,7 @@
       <c r="R223" s="5"/>
       <c r="S223" s="1"/>
     </row>
-    <row r="224" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1018</v>
       </c>
@@ -14004,7 +14014,7 @@
       <c r="R224" s="5"/>
       <c r="S224" s="1"/>
     </row>
-    <row r="225" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1021</v>
       </c>
@@ -14043,7 +14053,7 @@
       <c r="R225" s="5"/>
       <c r="S225" s="1"/>
     </row>
-    <row r="226" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1024</v>
       </c>
@@ -14082,7 +14092,7 @@
       <c r="R226" s="5"/>
       <c r="S226" s="1"/>
     </row>
-    <row r="227" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1032</v>
       </c>
@@ -14121,7 +14131,7 @@
       <c r="R227" s="5"/>
       <c r="S227" s="1"/>
     </row>
-    <row r="228" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1035</v>
       </c>
@@ -14160,7 +14170,7 @@
       <c r="R228" s="5"/>
       <c r="S228" s="1"/>
     </row>
-    <row r="229" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1038</v>
       </c>
@@ -14199,7 +14209,7 @@
       <c r="R229" s="5"/>
       <c r="S229" s="1"/>
     </row>
-    <row r="230" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1041</v>
       </c>
@@ -14238,7 +14248,7 @@
       <c r="R230" s="5"/>
       <c r="S230" s="1"/>
     </row>
-    <row r="231" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1049</v>
       </c>
@@ -14277,7 +14287,7 @@
       <c r="R231" s="5"/>
       <c r="S231" s="1"/>
     </row>
-    <row r="232" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1052</v>
       </c>
@@ -14316,7 +14326,7 @@
       <c r="R232" s="5"/>
       <c r="S232" s="1"/>
     </row>
-    <row r="233" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1057</v>
       </c>
@@ -14355,7 +14365,7 @@
       <c r="R233" s="5"/>
       <c r="S233" s="1"/>
     </row>
-    <row r="234" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1062</v>
       </c>
@@ -14394,7 +14404,7 @@
       <c r="R234" s="5"/>
       <c r="S234" s="1"/>
     </row>
-    <row r="235" spans="1:19" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1065</v>
       </c>
@@ -14433,7 +14443,7 @@
       <c r="R235" s="5"/>
       <c r="S235" s="1"/>
     </row>
-    <row r="236" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1068</v>
       </c>
@@ -14472,7 +14482,7 @@
       <c r="R236" s="5"/>
       <c r="S236" s="1"/>
     </row>
-    <row r="237" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1076</v>
       </c>
@@ -14511,7 +14521,7 @@
       <c r="R237" s="5"/>
       <c r="S237" s="1"/>
     </row>
-    <row r="238" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1079</v>
       </c>
@@ -14550,7 +14560,7 @@
       <c r="R238" s="5"/>
       <c r="S238" s="1"/>
     </row>
-    <row r="239" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1088</v>
       </c>
@@ -14589,7 +14599,7 @@
       <c r="R239" s="5"/>
       <c r="S239" s="1"/>
     </row>
-    <row r="240" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1091</v>
       </c>
@@ -14628,7 +14638,7 @@
       <c r="R240" s="5"/>
       <c r="S240" s="1"/>
     </row>
-    <row r="241" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1099</v>
       </c>
@@ -14667,7 +14677,7 @@
       <c r="R241" s="5"/>
       <c r="S241" s="1"/>
     </row>
-    <row r="242" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1102</v>
       </c>
@@ -14706,7 +14716,7 @@
       <c r="R242" s="5"/>
       <c r="S242" s="1"/>
     </row>
-    <row r="243" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1105</v>
       </c>
@@ -14745,7 +14755,7 @@
       <c r="R243" s="5"/>
       <c r="S243" s="1"/>
     </row>
-    <row r="244" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1108</v>
       </c>
@@ -14784,7 +14794,7 @@
       <c r="R244" s="5"/>
       <c r="S244" s="1"/>
     </row>
-    <row r="245" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1111</v>
       </c>
@@ -14823,7 +14833,7 @@
       <c r="R245" s="5"/>
       <c r="S245" s="1"/>
     </row>
-    <row r="246" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1117</v>
       </c>
@@ -14862,7 +14872,7 @@
       <c r="R246" s="5"/>
       <c r="S246" s="1"/>
     </row>
-    <row r="247" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1120</v>
       </c>
@@ -14901,7 +14911,7 @@
       <c r="R247" s="5"/>
       <c r="S247" s="1"/>
     </row>
-    <row r="248" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1129</v>
       </c>
@@ -14940,7 +14950,7 @@
       <c r="R248" s="5"/>
       <c r="S248" s="1"/>
     </row>
-    <row r="249" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1132</v>
       </c>
@@ -14979,7 +14989,7 @@
       <c r="R249" s="5"/>
       <c r="S249" s="1"/>
     </row>
-    <row r="250" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1140</v>
       </c>
@@ -15018,7 +15028,7 @@
       <c r="R250" s="5"/>
       <c r="S250" s="1"/>
     </row>
-    <row r="251" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1143</v>
       </c>
@@ -15057,7 +15067,7 @@
       <c r="R251" s="5"/>
       <c r="S251" s="1"/>
     </row>
-    <row r="252" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15096,7 +15106,7 @@
       <c r="R252" s="5"/>
       <c r="S252" s="1"/>
     </row>
-    <row r="253" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15135,7 +15145,7 @@
       <c r="R253" s="5"/>
       <c r="S253" s="1"/>
     </row>
-    <row r="254" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>1159</v>
       </c>
@@ -15174,7 +15184,7 @@
       <c r="R254" s="5"/>
       <c r="S254" s="1"/>
     </row>
-    <row r="255" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>1162</v>
       </c>
@@ -15213,7 +15223,7 @@
       <c r="R255" s="5"/>
       <c r="S255" s="1"/>
     </row>
-    <row r="256" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1165</v>
       </c>
@@ -15252,7 +15262,7 @@
       <c r="R256" s="5"/>
       <c r="S256" s="1"/>
     </row>
-    <row r="257" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1168</v>
       </c>
@@ -15291,7 +15301,7 @@
       <c r="R257" s="5"/>
       <c r="S257" s="1"/>
     </row>
-    <row r="258" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>1171</v>
       </c>
@@ -15330,7 +15340,7 @@
       <c r="R258" s="5"/>
       <c r="S258" s="1"/>
     </row>
-    <row r="259" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>1174</v>
       </c>
@@ -15369,7 +15379,7 @@
       <c r="R259" s="5"/>
       <c r="S259" s="1"/>
     </row>
-    <row r="260" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1177</v>
       </c>
@@ -15408,7 +15418,7 @@
       <c r="R260" s="5"/>
       <c r="S260" s="1"/>
     </row>
-    <row r="261" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1180</v>
       </c>
@@ -15447,7 +15457,7 @@
       <c r="R261" s="5"/>
       <c r="S261" s="1"/>
     </row>
-    <row r="262" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1189</v>
       </c>
@@ -15486,7 +15496,7 @@
       <c r="R262" s="5"/>
       <c r="S262" s="1"/>
     </row>
-    <row r="263" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1192</v>
       </c>
@@ -15525,7 +15535,7 @@
       <c r="R263" s="5"/>
       <c r="S263" s="1"/>
     </row>
-    <row r="264" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1195</v>
       </c>
@@ -15564,7 +15574,7 @@
       <c r="R264" s="5"/>
       <c r="S264" s="1"/>
     </row>
-    <row r="265" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1198</v>
       </c>
@@ -15603,7 +15613,7 @@
       <c r="R265" s="5"/>
       <c r="S265" s="1"/>
     </row>
-    <row r="266" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1201</v>
       </c>
@@ -15642,7 +15652,7 @@
       <c r="R266" s="5"/>
       <c r="S266" s="1"/>
     </row>
-    <row r="267" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1204</v>
       </c>
@@ -15681,7 +15691,7 @@
       <c r="R267" s="5"/>
       <c r="S267" s="1"/>
     </row>
-    <row r="268" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1207</v>
       </c>
@@ -15720,7 +15730,7 @@
       <c r="R268" s="5"/>
       <c r="S268" s="1"/>
     </row>
-    <row r="269" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1210</v>
       </c>
@@ -15759,7 +15769,7 @@
       <c r="R269" s="5"/>
       <c r="S269" s="1"/>
     </row>
-    <row r="270" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1216</v>
       </c>
@@ -15790,15 +15800,15 @@
       <c r="J270" s="1"/>
       <c r="K270" s="4"/>
       <c r="L270" s="4"/>
-      <c r="M270" s="8"/>
-      <c r="N270" s="8"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="7"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="5"/>
       <c r="S270" s="1"/>
     </row>
-    <row r="271" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1219</v>
       </c>
@@ -15837,7 +15847,7 @@
       <c r="R271" s="5"/>
       <c r="S271" s="1"/>
     </row>
-    <row r="272" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1222</v>
       </c>
@@ -15876,7 +15886,7 @@
       <c r="R272" s="5"/>
       <c r="S272" s="1"/>
     </row>
-    <row r="273" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1225</v>
       </c>
@@ -15915,7 +15925,7 @@
       <c r="R273" s="5"/>
       <c r="S273" s="1"/>
     </row>
-    <row r="274" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1228</v>
       </c>
@@ -15946,15 +15956,15 @@
       <c r="J274" s="1"/>
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="8"/>
-      <c r="N274" s="8"/>
+      <c r="M274" s="7"/>
+      <c r="N274" s="7"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="5"/>
       <c r="S274" s="1"/>
     </row>
-    <row r="275" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1231</v>
       </c>
@@ -15993,7 +16003,7 @@
       <c r="R275" s="5"/>
       <c r="S275" s="1"/>
     </row>
-    <row r="276" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1239</v>
       </c>
@@ -16032,7 +16042,7 @@
       <c r="R276" s="5"/>
       <c r="S276" s="1"/>
     </row>
-    <row r="277" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1242</v>
       </c>
@@ -16071,7 +16081,7 @@
       <c r="R277" s="5"/>
       <c r="S277" s="1"/>
     </row>
-    <row r="278" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1245</v>
       </c>
@@ -16110,7 +16120,7 @@
       <c r="R278" s="5"/>
       <c r="S278" s="1"/>
     </row>
-    <row r="279" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1250</v>
       </c>
@@ -16149,7 +16159,7 @@
       <c r="R279" s="5"/>
       <c r="S279" s="1"/>
     </row>
-    <row r="280" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1256</v>
       </c>
@@ -16188,7 +16198,7 @@
       <c r="R280" s="5"/>
       <c r="S280" s="1"/>
     </row>
-    <row r="281" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1259</v>
       </c>
@@ -16227,7 +16237,7 @@
       <c r="R281" s="5"/>
       <c r="S281" s="1"/>
     </row>
-    <row r="282" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1266</v>
       </c>
@@ -16258,15 +16268,15 @@
       <c r="J282" s="1"/>
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
-      <c r="M282" s="8"/>
-      <c r="N282" s="8"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="7"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="5"/>
       <c r="S282" s="1"/>
     </row>
-    <row r="283" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1269</v>
       </c>
@@ -16305,7 +16315,7 @@
       <c r="R283" s="5"/>
       <c r="S283" s="1"/>
     </row>
-    <row r="284" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1275</v>
       </c>
@@ -16344,7 +16354,7 @@
       <c r="R284" s="5"/>
       <c r="S284" s="1"/>
     </row>
-    <row r="285" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1282</v>
       </c>
@@ -16375,15 +16385,15 @@
       <c r="J285" s="1"/>
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
-      <c r="M285" s="8"/>
-      <c r="N285" s="8"/>
+      <c r="M285" s="7"/>
+      <c r="N285" s="7"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="5"/>
       <c r="S285" s="1"/>
     </row>
-    <row r="286" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1285</v>
       </c>
@@ -16422,7 +16432,7 @@
       <c r="R286" s="5"/>
       <c r="S286" s="1"/>
     </row>
-    <row r="287" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1288</v>
       </c>
@@ -16453,15 +16463,15 @@
       <c r="J287" s="1"/>
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="8"/>
-      <c r="N287" s="8"/>
+      <c r="M287" s="7"/>
+      <c r="N287" s="7"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="5"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1295</v>
       </c>
@@ -16500,7 +16510,7 @@
       <c r="R288" s="5"/>
       <c r="S288" s="1"/>
     </row>
-    <row r="289" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1298</v>
       </c>
@@ -16539,7 +16549,7 @@
       <c r="R289" s="5"/>
       <c r="S289" s="1"/>
     </row>
-    <row r="290" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1301</v>
       </c>
@@ -16578,7 +16588,7 @@
       <c r="R290" s="5"/>
       <c r="S290" s="1"/>
     </row>
-    <row r="291" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1309</v>
       </c>
@@ -16617,7 +16627,7 @@
       <c r="R291" s="5"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1312</v>
       </c>
@@ -16656,7 +16666,7 @@
       <c r="R292" s="5"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1319</v>
       </c>
@@ -16695,7 +16705,7 @@
       <c r="R293" s="5"/>
       <c r="S293" s="1"/>
     </row>
-    <row r="294" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1326</v>
       </c>
@@ -16734,7 +16744,7 @@
       <c r="R294" s="5"/>
       <c r="S294" s="1"/>
     </row>
-    <row r="295" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1329</v>
       </c>
@@ -16773,7 +16783,7 @@
       <c r="R295" s="5"/>
       <c r="S295" s="1"/>
     </row>
-    <row r="296" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>1332</v>
       </c>
@@ -16812,7 +16822,7 @@
       <c r="R296" s="5"/>
       <c r="S296" s="1"/>
     </row>
-    <row r="297" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>1340</v>
       </c>
@@ -16851,7 +16861,7 @@
       <c r="R297" s="5"/>
       <c r="S297" s="1"/>
     </row>
-    <row r="298" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1343</v>
       </c>
@@ -16890,7 +16900,7 @@
       <c r="R298" s="5"/>
       <c r="S298" s="1"/>
     </row>
-    <row r="299" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1351</v>
       </c>
@@ -16929,7 +16939,7 @@
       <c r="R299" s="5"/>
       <c r="S299" s="1"/>
     </row>
-    <row r="300" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>1354</v>
       </c>
@@ -16968,7 +16978,7 @@
       <c r="R300" s="5"/>
       <c r="S300" s="1"/>
     </row>
-    <row r="301" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>1360</v>
       </c>
@@ -17007,7 +17017,7 @@
       <c r="R301" s="5"/>
       <c r="S301" s="1"/>
     </row>
-    <row r="302" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="330" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>1366</v>
       </c>
@@ -17046,7 +17056,7 @@
       <c r="R302" s="5"/>
       <c r="S302" s="1"/>
     </row>
-    <row r="303" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="330" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>1375</v>
       </c>
@@ -17085,7 +17095,7 @@
       <c r="R303" s="5"/>
       <c r="S303" s="1"/>
     </row>
-    <row r="304" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="330" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>1378</v>
       </c>
@@ -17124,7 +17134,7 @@
       <c r="R304" s="5"/>
       <c r="S304" s="1"/>
     </row>
-    <row r="305" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="330" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1381</v>
       </c>
@@ -17163,7 +17173,7 @@
       <c r="R305" s="5"/>
       <c r="S305" s="1"/>
     </row>
-    <row r="306" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="330" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1384</v>
       </c>
@@ -17202,7 +17212,7 @@
       <c r="R306" s="5"/>
       <c r="S306" s="1"/>
     </row>
-    <row r="307" spans="1:19" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="330" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1387</v>
       </c>
@@ -17241,7 +17251,7 @@
       <c r="R307" s="5"/>
       <c r="S307" s="1"/>
     </row>
-    <row r="308" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>1390</v>
       </c>
@@ -17280,7 +17290,7 @@
       <c r="R308" s="5"/>
       <c r="S308" s="1"/>
     </row>
-    <row r="309" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1398</v>
       </c>
@@ -17319,7 +17329,7 @@
       <c r="R309" s="5"/>
       <c r="S309" s="1"/>
     </row>
-    <row r="310" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17358,7 +17368,7 @@
       <c r="R310" s="5"/>
       <c r="S310" s="1"/>
     </row>
-    <row r="311" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1409</v>
       </c>
@@ -17397,7 +17407,7 @@
       <c r="R311" s="5"/>
       <c r="S311" s="1"/>
     </row>
-    <row r="312" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1412</v>
       </c>
@@ -17436,7 +17446,7 @@
       <c r="R312" s="5"/>
       <c r="S312" s="1"/>
     </row>
-    <row r="313" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>1415</v>
       </c>
@@ -17475,7 +17485,7 @@
       <c r="R313" s="5"/>
       <c r="S313" s="1"/>
     </row>
-    <row r="314" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1421</v>
       </c>
@@ -17514,7 +17524,7 @@
       <c r="R314" s="5"/>
       <c r="S314" s="1"/>
     </row>
-    <row r="315" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>1426</v>
       </c>
@@ -17553,7 +17563,7 @@
       <c r="R315" s="5"/>
       <c r="S315" s="1"/>
     </row>
-    <row r="316" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1429</v>
       </c>
@@ -17592,7 +17602,7 @@
       <c r="R316" s="5"/>
       <c r="S316" s="1"/>
     </row>
-    <row r="317" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17631,7 +17641,7 @@
       <c r="R317" s="5"/>
       <c r="S317" s="1"/>
     </row>
-    <row r="318" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1440</v>
       </c>
@@ -17670,7 +17680,7 @@
       <c r="R318" s="5"/>
       <c r="S318" s="1"/>
     </row>
-    <row r="319" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1443</v>
       </c>
@@ -17709,7 +17719,7 @@
       <c r="R319" s="5"/>
       <c r="S319" s="1"/>
     </row>
-    <row r="320" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1446</v>
       </c>
@@ -17740,15 +17750,15 @@
       <c r="J320" s="1"/>
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
-      <c r="M320" s="8"/>
-      <c r="N320" s="8"/>
+      <c r="M320" s="7"/>
+      <c r="N320" s="7"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="5"/>
       <c r="S320" s="1"/>
     </row>
-    <row r="321" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17789,22 +17799,23 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O321" xr:uid="{3EA95A99-84C3-4CE3-A3A0-705560DAD8A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O200:O321 O2:O192" xr:uid="{3EA95A99-84C3-4CE3-A3A0-705560DAD8A0}">
       <formula1>"Daily, Weekly, Monthly, Quarterly, Biannual, Annual, Biennial, Triennial"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J321" xr:uid="{4820AC63-1CC2-409B-9892-4AFF8085431B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J200:J321 J2:J192" xr:uid="{4820AC63-1CC2-409B-9892-4AFF8085431B}">
       <formula1>"Met, Not Met, Not Applicable"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K193" r:id="rId1" xr:uid="{BCFF6073-2D8E-4466-8680-9CEBF1567098}"/>
-    <hyperlink ref="K195" r:id="rId2" xr:uid="{BD7817B6-9DB5-4CF7-84B0-C1AB7343EF4B}"/>
-    <hyperlink ref="K196:K199" r:id="rId3" display="https://securitybagel.github.io/CMMC-Bagel-Lite/policy-example.html" xr:uid="{6C72ACAA-3948-4C13-A585-200D818F64C4}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{BCFF6073-2D8E-4466-8680-9CEBF1567098}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{BD7817B6-9DB5-4CF7-84B0-C1AB7343EF4B}"/>
+    <hyperlink ref="K5:K8" r:id="rId3" display="https://securitybagel.github.io/CMMC-Bagel-Lite/policy-example.html" xr:uid="{6C72ACAA-3948-4C13-A585-200D818F64C4}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{CA2472FF-C778-4DFC-9502-F52289AECB86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>